--- a/Outputs/1. Budget/Output Files/1250000/Output_7_29.xlsx
+++ b/Outputs/1. Budget/Output Files/1250000/Output_7_29.xlsx
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2262378.585261805</v>
+        <v>2258032.751446263</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>840694.972106918</v>
+        <v>840694.9721069179</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9892703.125658192</v>
+        <v>9892703.125658195</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>163.8950372953901</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>140.2067433295011</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>9.275596830496628</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,16 +861,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>101.7806877295488</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>32.34459158759299</v>
+        <v>4.707775948794417</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,7 +913,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -946,22 +946,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -986,13 +986,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933836</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I6" t="n">
         <v>61.42221998250818</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1107,22 +1107,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>55.90301252244922</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>354.9564060845922</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>294.0578350639865</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>23.3289799064248</v>
+        <v>162.3912409166441</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1390,7 +1390,7 @@
         <v>295.6178616169272</v>
       </c>
       <c r="I11" t="n">
-        <v>45.37937317040308</v>
+        <v>45.37937317040314</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>111.4352990145557</v>
+        <v>111.4352990145559</v>
       </c>
       <c r="T11" t="n">
         <v>204.3497241367009</v>
@@ -1469,7 +1469,7 @@
         <v>90.10654034855867</v>
       </c>
       <c r="I12" t="n">
-        <v>10.50839692030166</v>
+        <v>10.50839692030168</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.0700504016732</v>
@@ -1548,7 +1548,7 @@
         <v>145.148367782564</v>
       </c>
       <c r="I13" t="n">
-        <v>97.68290229956055</v>
+        <v>97.68290229956057</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>190.5400452173542</v>
       </c>
       <c r="T13" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>64.21168800535652</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>46.39802920136653</v>
       </c>
     </row>
     <row r="14">
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1627,7 +1627,7 @@
         <v>295.6178616169272</v>
       </c>
       <c r="I14" t="n">
-        <v>45.37937317040308</v>
+        <v>45.37937317040314</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>204.3497241367009</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0030623803219</v>
+        <v>251.0030623803221</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>90.10654034855867</v>
       </c>
       <c r="I15" t="n">
-        <v>10.50839692030166</v>
+        <v>10.50839692030168</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>17.44931544393176</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>97.68290229956057</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>60.8099109025016</v>
       </c>
       <c r="S16" t="n">
         <v>190.5400452173542</v>
@@ -1824,16 +1824,16 @@
         <v>286.2142514133935</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>295.6178616169272</v>
       </c>
       <c r="I17" t="n">
-        <v>45.37937317040308</v>
+        <v>45.37937317040314</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>111.4352990145557</v>
       </c>
       <c r="T17" t="n">
-        <v>204.3497241367009</v>
+        <v>204.3497241367017</v>
       </c>
       <c r="U17" t="n">
         <v>251.0030623803221</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1943,7 +1943,7 @@
         <v>90.10654034855867</v>
       </c>
       <c r="I18" t="n">
-        <v>10.50839692030166</v>
+        <v>10.50839692030168</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>100.164588701113</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>106.2643601382278</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0700504016732</v>
       </c>
       <c r="H19" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>97.68290229956055</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U19" t="n">
         <v>286.2142514133935</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2247,16 +2247,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>5.000052658724698</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>9.959387235766899</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2484,10 +2484,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.0700504016732</v>
@@ -2496,7 +2496,7 @@
         <v>145.148367782564</v>
       </c>
       <c r="I25" t="n">
-        <v>70.91732617176365</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S25" t="n">
-        <v>190.5400452173542</v>
+        <v>67.52101647276696</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2715,25 +2715,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>145.148367782564</v>
+        <v>28.81869974802235</v>
       </c>
       <c r="I28" t="n">
-        <v>97.68290229956055</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U28" t="n">
         <v>286.2142514133935</v>
       </c>
       <c r="V28" t="n">
-        <v>139.8623155958503</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.0203559212046</v>
+        <v>411.0203559212044</v>
       </c>
       <c r="H29" t="n">
         <v>295.6178616169272</v>
@@ -2955,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>92.65195822211759</v>
       </c>
       <c r="G31" t="n">
         <v>166.0700504016732</v>
@@ -2970,7 +2970,7 @@
         <v>145.148367782564</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3006,16 +3006,16 @@
         <v>219.7379838856521</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>176.8163495318179</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3189,13 +3189,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3237,22 +3237,22 @@
         <v>90.92144028388266</v>
       </c>
       <c r="S34" t="n">
-        <v>106.1106304311235</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T34" t="n">
         <v>219.7379838856521</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>24.49432065968393</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>119.740140031905</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3432,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>97.68290229956055</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T37" t="n">
         <v>219.7379838856521</v>
@@ -3483,16 +3483,16 @@
         <v>286.2142514133935</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>262.0857790443279</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U40" t="n">
         <v>286.2142514133935</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>75.66622466102584</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>89.02000815819825</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>295.6178616169272</v>
       </c>
       <c r="I41" t="n">
-        <v>45.37937317040289</v>
+        <v>45.37937317040308</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3906,13 +3906,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>34.32389483613349</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>93.38425340274502</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4149,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H46" t="n">
         <v>145.148367782564</v>
       </c>
       <c r="I46" t="n">
-        <v>97.68290229956055</v>
+        <v>71.55698534223954</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>172.7777239268848</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1405.321187657107</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="C2" t="n">
-        <v>1036.358670716696</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W2" t="n">
-        <v>2555.52611795812</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X2" t="n">
-        <v>2182.06035969704</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y2" t="n">
-        <v>1791.921027721229</v>
+        <v>2642.120401548716</v>
       </c>
     </row>
     <row r="3">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2191.89927156006</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="C4" t="n">
-        <v>2022.963088632153</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="D4" t="n">
-        <v>2022.963088632153</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="E4" t="n">
-        <v>2022.963088632153</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="F4" t="n">
-        <v>2022.963088632153</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="G4" t="n">
-        <v>2022.963088632153</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="H4" t="n">
-        <v>2022.963088632153</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="I4" t="n">
-        <v>2022.963088632153</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018222</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>2697.149091018222</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>2697.149091018222</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T4" t="n">
-        <v>2697.149091018222</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U4" t="n">
-        <v>2697.149091018222</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="V4" t="n">
-        <v>2697.149091018222</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="W4" t="n">
-        <v>2697.149091018222</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="X4" t="n">
-        <v>2594.34031553383</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="Y4" t="n">
-        <v>2373.5477363903</v>
+        <v>108.9687959810045</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1796.25819089779</v>
+        <v>1726.57441852865</v>
       </c>
       <c r="C5" t="n">
-        <v>1427.295673957378</v>
+        <v>1726.57441852865</v>
       </c>
       <c r="D5" t="n">
-        <v>1069.029975350628</v>
+        <v>1368.308719921899</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2169.72394915887</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2169.72394915887</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>2169.72394915887</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X5" t="n">
-        <v>1796.25819089779</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="Y5" t="n">
-        <v>1796.25819089779</v>
+        <v>2113.174258592771</v>
       </c>
     </row>
     <row r="6">
@@ -4634,10 +4634,10 @@
         <v>505.8730812692492</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4646,22 +4646,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C7" t="n">
         <v>53.94298182036445</v>
@@ -4755,22 +4755,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>671.6612947898188</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>443.6717438918015</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="8">
@@ -4780,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1568.353113282533</v>
+        <v>1579.049931616194</v>
       </c>
       <c r="C8" t="n">
-        <v>1568.353113282533</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D8" t="n">
         <v>1210.087414675782</v>
@@ -4804,19 +4804,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4840,16 +4840,16 @@
         <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="X8" t="n">
-        <v>2345.092285322467</v>
+        <v>1937.591755944065</v>
       </c>
       <c r="Y8" t="n">
-        <v>1954.952953346655</v>
+        <v>1937.591755944065</v>
       </c>
     </row>
     <row r="9">
@@ -4874,10 +4874,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245969</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T10" t="n">
-        <v>513.8405610245969</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="U10" t="n">
-        <v>490.2759348564911</v>
+        <v>320.3920853967602</v>
       </c>
       <c r="V10" t="n">
-        <v>235.5914466506042</v>
+        <v>320.3920853967602</v>
       </c>
       <c r="W10" t="n">
-        <v>235.5914466506042</v>
+        <v>320.3920853967602</v>
       </c>
       <c r="X10" t="n">
-        <v>235.5914466506042</v>
+        <v>320.3920853967602</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.5914466506042</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="11">
@@ -5023,7 +5023,7 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D11" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E11" t="n">
         <v>1266.317301993267</v>
@@ -5032,7 +5032,7 @@
         <v>855.3313972036599</v>
       </c>
       <c r="G11" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155744</v>
       </c>
       <c r="H11" t="n">
         <v>141.5554198924156</v>
@@ -5041,28 +5041,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J11" t="n">
-        <v>443.7150397139484</v>
+        <v>276.3093906935953</v>
       </c>
       <c r="K11" t="n">
-        <v>1086.017693327009</v>
+        <v>597.7080858612028</v>
       </c>
       <c r="L11" t="n">
-        <v>1521.642956557056</v>
+        <v>1446.817951496195</v>
       </c>
       <c r="M11" t="n">
-        <v>2038.02943534674</v>
+        <v>2408.222828443783</v>
       </c>
       <c r="N11" t="n">
-        <v>2657.180509552854</v>
+        <v>3370.552243872424</v>
       </c>
       <c r="O11" t="n">
-        <v>3520.693250262004</v>
+        <v>4114.525067779331</v>
       </c>
       <c r="P11" t="n">
-        <v>4220.007013476401</v>
+        <v>4495.25810990396</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.940766252041</v>
+        <v>4733.000021926294</v>
       </c>
       <c r="R11" t="n">
         <v>4785.883460762037</v>
@@ -5077,13 +5077,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V11" t="n">
-        <v>3882.307355709801</v>
+        <v>3882.307355709802</v>
       </c>
       <c r="W11" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439688</v>
       </c>
       <c r="X11" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178608</v>
       </c>
       <c r="Y11" t="n">
         <v>2765.933610202796</v>
@@ -5120,19 +5120,19 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J12" t="n">
-        <v>258.3150913629246</v>
+        <v>184.4590143936092</v>
       </c>
       <c r="K12" t="n">
-        <v>488.1430095111811</v>
+        <v>488.1430095111818</v>
       </c>
       <c r="L12" t="n">
-        <v>843.4975491433823</v>
+        <v>843.4975491433829</v>
       </c>
       <c r="M12" t="n">
-        <v>1277.536404075618</v>
+        <v>1277.536404075619</v>
       </c>
       <c r="N12" t="n">
-        <v>1737.471620890736</v>
+        <v>1737.471620890737</v>
       </c>
       <c r="O12" t="n">
         <v>2136.002693439725</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>508.7493060675617</v>
+        <v>974.6920759057148</v>
       </c>
       <c r="C13" t="n">
-        <v>508.7493060675617</v>
+        <v>805.7558929778079</v>
       </c>
       <c r="D13" t="n">
-        <v>508.7493060675617</v>
+        <v>655.6392535654721</v>
       </c>
       <c r="E13" t="n">
-        <v>508.7493060675617</v>
+        <v>655.6392535654721</v>
       </c>
       <c r="F13" t="n">
         <v>508.7493060675617</v>
@@ -5202,16 +5202,16 @@
         <v>137.7436613720288</v>
       </c>
       <c r="K13" t="n">
-        <v>336.6421130738839</v>
+        <v>336.6421130738838</v>
       </c>
       <c r="L13" t="n">
-        <v>646.6900875150416</v>
+        <v>646.6900875150413</v>
       </c>
       <c r="M13" t="n">
-        <v>983.9813277239498</v>
+        <v>983.9813277239496</v>
       </c>
       <c r="N13" t="n">
-        <v>1318.687152545534</v>
+        <v>1318.687152545533</v>
       </c>
       <c r="O13" t="n">
         <v>1611.825859961355</v>
@@ -5223,28 +5223,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R13" t="n">
-        <v>1821.238811302082</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S13" t="n">
-        <v>1628.774119163341</v>
+        <v>1720.613957833929</v>
       </c>
       <c r="T13" t="n">
-        <v>1406.816559682884</v>
+        <v>1720.613957833929</v>
       </c>
       <c r="U13" t="n">
-        <v>1117.711255224911</v>
+        <v>1720.613957833929</v>
       </c>
       <c r="V13" t="n">
-        <v>863.0267670190239</v>
+        <v>1720.613957833929</v>
       </c>
       <c r="W13" t="n">
-        <v>573.6095969820633</v>
+        <v>1431.196787796968</v>
       </c>
       <c r="X13" t="n">
-        <v>508.7493060675617</v>
+        <v>1203.207236898951</v>
       </c>
       <c r="Y13" t="n">
-        <v>508.7493060675617</v>
+        <v>1156.340540735954</v>
       </c>
     </row>
     <row r="14">
@@ -5260,7 +5260,7 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D14" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E14" t="n">
         <v>1266.317301993267</v>
@@ -5269,7 +5269,7 @@
         <v>855.3313972036599</v>
       </c>
       <c r="G14" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155744</v>
       </c>
       <c r="H14" t="n">
         <v>141.5554198924156</v>
@@ -5278,28 +5278,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J14" t="n">
-        <v>276.3093906935954</v>
+        <v>276.3093906935953</v>
       </c>
       <c r="K14" t="n">
-        <v>918.6120443066561</v>
+        <v>918.6120443066559</v>
       </c>
       <c r="L14" t="n">
-        <v>1453.715711762088</v>
+        <v>1767.721909941648</v>
       </c>
       <c r="M14" t="n">
-        <v>1970.102190551772</v>
+        <v>2284.108388731332</v>
       </c>
       <c r="N14" t="n">
-        <v>2932.431605980412</v>
+        <v>2813.464348992108</v>
       </c>
       <c r="O14" t="n">
-        <v>3795.944346689562</v>
+        <v>3676.977089701258</v>
       </c>
       <c r="P14" t="n">
-        <v>4495.258109903959</v>
+        <v>4376.290852915655</v>
       </c>
       <c r="Q14" t="n">
-        <v>4733.000021926293</v>
+        <v>4733.000021926294</v>
       </c>
       <c r="R14" t="n">
         <v>4785.883460762037</v>
@@ -5314,13 +5314,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V14" t="n">
-        <v>3882.307355709802</v>
+        <v>3882.307355709801</v>
       </c>
       <c r="W14" t="n">
-        <v>3529.538700439688</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X14" t="n">
-        <v>3156.072942178608</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y14" t="n">
         <v>2765.933610202796</v>
@@ -5357,22 +5357,22 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J15" t="n">
-        <v>258.3150913629246</v>
+        <v>184.4590143936092</v>
       </c>
       <c r="K15" t="n">
-        <v>488.1430095111811</v>
+        <v>414.2869325418657</v>
       </c>
       <c r="L15" t="n">
-        <v>843.4975491433823</v>
+        <v>769.6414721740668</v>
       </c>
       <c r="M15" t="n">
-        <v>1277.536404075618</v>
+        <v>1203.680327106302</v>
       </c>
       <c r="N15" t="n">
-        <v>1737.471620890736</v>
+        <v>1663.615543921421</v>
       </c>
       <c r="O15" t="n">
-        <v>2136.002693439725</v>
+        <v>2062.146616470409</v>
       </c>
       <c r="P15" t="n">
         <v>2436.525948037006</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>579.120499023712</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="C16" t="n">
-        <v>579.120499023712</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="D16" t="n">
-        <v>429.0038596113762</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="E16" t="n">
-        <v>281.0907660289831</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="F16" t="n">
-        <v>263.4651948734965</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="G16" t="n">
-        <v>95.71766921524075</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="H16" t="n">
-        <v>95.71766921524075</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="I16" t="n">
         <v>95.71766921524075</v>
@@ -5439,16 +5439,16 @@
         <v>137.7436613720288</v>
       </c>
       <c r="K16" t="n">
-        <v>336.6421130738839</v>
+        <v>336.6421130738838</v>
       </c>
       <c r="L16" t="n">
-        <v>646.6900875150416</v>
+        <v>646.6900875150413</v>
       </c>
       <c r="M16" t="n">
-        <v>983.9813277239498</v>
+        <v>983.9813277239496</v>
       </c>
       <c r="N16" t="n">
-        <v>1318.687152545534</v>
+        <v>1318.687152545533</v>
       </c>
       <c r="O16" t="n">
         <v>1611.825859961355</v>
@@ -5460,28 +5460,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R16" t="n">
-        <v>1913.078649972671</v>
+        <v>1851.654497545901</v>
       </c>
       <c r="S16" t="n">
-        <v>1720.613957833929</v>
+        <v>1659.18980540716</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.656398353472</v>
+        <v>1437.232245926703</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.551093895499</v>
+        <v>1148.12694146873</v>
       </c>
       <c r="V16" t="n">
-        <v>1209.551093895499</v>
+        <v>893.4424532628427</v>
       </c>
       <c r="W16" t="n">
-        <v>1209.551093895499</v>
+        <v>604.0252832258822</v>
       </c>
       <c r="X16" t="n">
-        <v>981.5615429974819</v>
+        <v>376.0357323278648</v>
       </c>
       <c r="Y16" t="n">
-        <v>760.7689638539517</v>
+        <v>376.0357323278648</v>
       </c>
     </row>
     <row r="17">
@@ -5506,7 +5506,7 @@
         <v>855.3313972036599</v>
       </c>
       <c r="G17" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155744</v>
       </c>
       <c r="H17" t="n">
         <v>141.5554198924156</v>
@@ -5515,28 +5515,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J17" t="n">
-        <v>276.3093906935954</v>
+        <v>276.3093906935953</v>
       </c>
       <c r="K17" t="n">
-        <v>597.708085861203</v>
+        <v>597.7080858612028</v>
       </c>
       <c r="L17" t="n">
-        <v>1327.278034693952</v>
+        <v>1446.817951496195</v>
       </c>
       <c r="M17" t="n">
-        <v>2288.68291164154</v>
+        <v>2408.222828443783</v>
       </c>
       <c r="N17" t="n">
-        <v>3251.012327070181</v>
+        <v>3370.552243872424</v>
       </c>
       <c r="O17" t="n">
-        <v>4114.52506777933</v>
+        <v>4114.525067779331</v>
       </c>
       <c r="P17" t="n">
-        <v>4495.258109903959</v>
+        <v>4495.25810990396</v>
       </c>
       <c r="Q17" t="n">
-        <v>4733.000021926293</v>
+        <v>4733.000021926294</v>
       </c>
       <c r="R17" t="n">
         <v>4785.883460762037</v>
@@ -5545,10 +5545,10 @@
         <v>4673.322552666526</v>
       </c>
       <c r="T17" t="n">
-        <v>4466.908689902182</v>
+        <v>4466.908689902181</v>
       </c>
       <c r="U17" t="n">
-        <v>4213.370243053372</v>
+        <v>4213.370243053371</v>
       </c>
       <c r="V17" t="n">
         <v>3882.307355709801</v>
@@ -5557,7 +5557,7 @@
         <v>3529.538700439687</v>
       </c>
       <c r="X17" t="n">
-        <v>3156.072942178608</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y17" t="n">
         <v>2765.933610202796</v>
@@ -5594,25 +5594,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J18" t="n">
-        <v>258.3150913629246</v>
+        <v>184.4590143936092</v>
       </c>
       <c r="K18" t="n">
-        <v>488.1430095111811</v>
+        <v>414.2869325418657</v>
       </c>
       <c r="L18" t="n">
-        <v>843.4975491433823</v>
+        <v>769.6414721740668</v>
       </c>
       <c r="M18" t="n">
-        <v>1277.536404075618</v>
+        <v>1203.680327106302</v>
       </c>
       <c r="N18" t="n">
-        <v>1737.471620890736</v>
+        <v>1663.615543921421</v>
       </c>
       <c r="O18" t="n">
-        <v>2136.002693439725</v>
+        <v>2062.146616470409</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.525948037006</v>
+        <v>2362.66987106769</v>
       </c>
       <c r="Q18" t="n">
         <v>2587.498588679581</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>760.042297703244</v>
+        <v>3390.497690674135</v>
       </c>
       <c r="C19" t="n">
-        <v>658.8659454798975</v>
+        <v>3390.497690674135</v>
       </c>
       <c r="D19" t="n">
-        <v>508.7493060675617</v>
+        <v>3283.159953160774</v>
       </c>
       <c r="E19" t="n">
-        <v>508.7493060675617</v>
+        <v>3283.159953160774</v>
       </c>
       <c r="F19" t="n">
-        <v>508.7493060675617</v>
+        <v>3136.270005662864</v>
       </c>
       <c r="G19" t="n">
-        <v>341.001780409306</v>
+        <v>2968.522480004608</v>
       </c>
       <c r="H19" t="n">
-        <v>194.3872674976251</v>
+        <v>2968.522480004608</v>
       </c>
       <c r="I19" t="n">
-        <v>95.71766921524075</v>
+        <v>2968.522480004608</v>
       </c>
       <c r="J19" t="n">
-        <v>137.7436613720288</v>
+        <v>3010.548472161396</v>
       </c>
       <c r="K19" t="n">
-        <v>336.6421130738839</v>
+        <v>3209.446923863251</v>
       </c>
       <c r="L19" t="n">
-        <v>646.6900875150416</v>
+        <v>3519.494898304409</v>
       </c>
       <c r="M19" t="n">
-        <v>983.9813277239498</v>
+        <v>3856.786138513317</v>
       </c>
       <c r="N19" t="n">
-        <v>1318.687152545534</v>
+        <v>4191.491963334901</v>
       </c>
       <c r="O19" t="n">
-        <v>1611.825859961355</v>
+        <v>4484.630670750722</v>
       </c>
       <c r="P19" t="n">
-        <v>1839.135983203279</v>
+        <v>4711.940793992646</v>
       </c>
       <c r="Q19" t="n">
-        <v>1913.078649972671</v>
+        <v>4785.883460762037</v>
       </c>
       <c r="R19" t="n">
-        <v>1821.238811302082</v>
+        <v>4785.883460762037</v>
       </c>
       <c r="S19" t="n">
-        <v>1821.238811302082</v>
+        <v>4593.418768623295</v>
       </c>
       <c r="T19" t="n">
-        <v>1821.238811302082</v>
+        <v>4371.461209142839</v>
       </c>
       <c r="U19" t="n">
-        <v>1532.133506844109</v>
+        <v>4082.355904684866</v>
       </c>
       <c r="V19" t="n">
-        <v>1277.449018638222</v>
+        <v>4082.355904684866</v>
       </c>
       <c r="W19" t="n">
-        <v>988.0318486012613</v>
+        <v>3792.938734647905</v>
       </c>
       <c r="X19" t="n">
-        <v>760.042297703244</v>
+        <v>3792.938734647905</v>
       </c>
       <c r="Y19" t="n">
-        <v>760.042297703244</v>
+        <v>3572.146155504375</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2379.333770138674</v>
+        <v>2379.333770138673</v>
       </c>
       <c r="C20" t="n">
-        <v>2010.371253198262</v>
+        <v>2010.371253198261</v>
       </c>
       <c r="D20" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E20" t="n">
         <v>1266.317301993267</v>
       </c>
       <c r="F20" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036598</v>
       </c>
       <c r="G20" t="n">
         <v>440.1593205155743</v>
@@ -5758,13 +5758,13 @@
         <v>597.708085861203</v>
       </c>
       <c r="L20" t="n">
-        <v>1327.278034693952</v>
+        <v>1446.817951496196</v>
       </c>
       <c r="M20" t="n">
-        <v>2288.68291164154</v>
+        <v>2408.222828443784</v>
       </c>
       <c r="N20" t="n">
-        <v>3251.012327070181</v>
+        <v>3370.552243872424</v>
       </c>
       <c r="O20" t="n">
         <v>4114.52506777933</v>
@@ -5785,19 +5785,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U20" t="n">
-        <v>4213.370243053372</v>
+        <v>4213.370243053371</v>
       </c>
       <c r="V20" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W20" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439686</v>
       </c>
       <c r="X20" t="n">
-        <v>3156.072942178608</v>
+        <v>3156.072942178606</v>
       </c>
       <c r="Y20" t="n">
-        <v>2765.933610202796</v>
+        <v>2765.933610202795</v>
       </c>
     </row>
     <row r="21">
@@ -5834,22 +5834,22 @@
         <v>184.4590143936093</v>
       </c>
       <c r="K21" t="n">
-        <v>414.2869325418658</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L21" t="n">
-        <v>769.6414721740671</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M21" t="n">
-        <v>1203.680327106303</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N21" t="n">
-        <v>1663.615543921421</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O21" t="n">
-        <v>2062.146616470409</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P21" t="n">
-        <v>2362.66987106769</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q21" t="n">
         <v>2587.498588679581</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>414.7704915554834</v>
+        <v>3896.740381995089</v>
       </c>
       <c r="C22" t="n">
-        <v>245.8343086275765</v>
+        <v>3727.804199067182</v>
       </c>
       <c r="D22" t="n">
-        <v>95.71766921524075</v>
+        <v>3577.687559654847</v>
       </c>
       <c r="E22" t="n">
-        <v>95.71766921524075</v>
+        <v>3429.774466072453</v>
       </c>
       <c r="F22" t="n">
-        <v>95.71766921524075</v>
+        <v>3282.884518574543</v>
       </c>
       <c r="G22" t="n">
-        <v>95.71766921524075</v>
+        <v>3115.136992916287</v>
       </c>
       <c r="H22" t="n">
-        <v>95.71766921524075</v>
+        <v>2968.522480004607</v>
       </c>
       <c r="I22" t="n">
-        <v>95.71766921524075</v>
+        <v>2968.522480004607</v>
       </c>
       <c r="J22" t="n">
-        <v>137.7436613720288</v>
+        <v>3010.548472161395</v>
       </c>
       <c r="K22" t="n">
-        <v>336.6421130738839</v>
+        <v>3209.44692386325</v>
       </c>
       <c r="L22" t="n">
-        <v>646.6900875150416</v>
+        <v>3519.494898304408</v>
       </c>
       <c r="M22" t="n">
-        <v>983.9813277239498</v>
+        <v>3856.786138513316</v>
       </c>
       <c r="N22" t="n">
-        <v>1318.687152545534</v>
+        <v>4191.4919633349</v>
       </c>
       <c r="O22" t="n">
-        <v>1611.825859961355</v>
+        <v>4484.630670750721</v>
       </c>
       <c r="P22" t="n">
-        <v>1839.135983203279</v>
+        <v>4711.940793992646</v>
       </c>
       <c r="Q22" t="n">
-        <v>1913.078649972671</v>
+        <v>4785.883460762037</v>
       </c>
       <c r="R22" t="n">
-        <v>1821.238811302082</v>
+        <v>4785.883460762037</v>
       </c>
       <c r="S22" t="n">
-        <v>1628.774119163341</v>
+        <v>4785.883460762037</v>
       </c>
       <c r="T22" t="n">
-        <v>1623.723560922205</v>
+        <v>4563.925901281581</v>
       </c>
       <c r="U22" t="n">
-        <v>1334.618256464231</v>
+        <v>4563.925901281581</v>
       </c>
       <c r="V22" t="n">
-        <v>1334.618256464231</v>
+        <v>4309.241413075694</v>
       </c>
       <c r="W22" t="n">
-        <v>1045.201086427271</v>
+        <v>4309.241413075694</v>
       </c>
       <c r="X22" t="n">
-        <v>817.2115355292533</v>
+        <v>4299.181425968859</v>
       </c>
       <c r="Y22" t="n">
-        <v>596.4189563857232</v>
+        <v>4078.388846825329</v>
       </c>
     </row>
     <row r="23">
@@ -5974,13 +5974,13 @@
         <v>1652.105554591512</v>
       </c>
       <c r="E23" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F23" t="n">
         <v>855.3313972036599</v>
       </c>
       <c r="G23" t="n">
-        <v>440.1593205155741</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H23" t="n">
         <v>141.5554198924156</v>
@@ -5992,19 +5992,19 @@
         <v>276.3093906935954</v>
       </c>
       <c r="K23" t="n">
-        <v>597.708085861203</v>
+        <v>604.6058461270954</v>
       </c>
       <c r="L23" t="n">
-        <v>1446.817951496196</v>
+        <v>1453.715711762088</v>
       </c>
       <c r="M23" t="n">
-        <v>2408.222828443784</v>
+        <v>1970.102190551772</v>
       </c>
       <c r="N23" t="n">
-        <v>3370.552243872424</v>
+        <v>2932.431605980412</v>
       </c>
       <c r="O23" t="n">
-        <v>4114.52506777933</v>
+        <v>3795.944346689562</v>
       </c>
       <c r="P23" t="n">
         <v>4495.258109903959</v>
@@ -6025,13 +6025,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V23" t="n">
-        <v>3882.307355709801</v>
+        <v>3882.307355709802</v>
       </c>
       <c r="W23" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439688</v>
       </c>
       <c r="X23" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178608</v>
       </c>
       <c r="Y23" t="n">
         <v>2765.933610202796</v>
@@ -6071,13 +6071,13 @@
         <v>184.4590143936093</v>
       </c>
       <c r="K24" t="n">
-        <v>488.1430095111811</v>
+        <v>414.2869325418658</v>
       </c>
       <c r="L24" t="n">
-        <v>843.4975491433823</v>
+        <v>769.6414721740671</v>
       </c>
       <c r="M24" t="n">
-        <v>1277.536404075618</v>
+        <v>1203.680327106303</v>
       </c>
       <c r="N24" t="n">
         <v>1737.471620890736</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>800.7661929251813</v>
+        <v>3995.409980277474</v>
       </c>
       <c r="C25" t="n">
-        <v>631.8300099972744</v>
+        <v>3826.473797349567</v>
       </c>
       <c r="D25" t="n">
-        <v>481.7133705849386</v>
+        <v>3676.357157937231</v>
       </c>
       <c r="E25" t="n">
-        <v>481.7133705849386</v>
+        <v>3528.444064354838</v>
       </c>
       <c r="F25" t="n">
-        <v>481.7133705849386</v>
+        <v>3381.554116856928</v>
       </c>
       <c r="G25" t="n">
-        <v>313.9658449266828</v>
+        <v>3213.806591198672</v>
       </c>
       <c r="H25" t="n">
-        <v>167.351332015002</v>
+        <v>3067.192078286991</v>
       </c>
       <c r="I25" t="n">
-        <v>95.71766921524075</v>
+        <v>2968.522480004607</v>
       </c>
       <c r="J25" t="n">
-        <v>137.7436613720288</v>
+        <v>3010.548472161395</v>
       </c>
       <c r="K25" t="n">
-        <v>336.6421130738839</v>
+        <v>3209.44692386325</v>
       </c>
       <c r="L25" t="n">
-        <v>646.6900875150416</v>
+        <v>3519.494898304408</v>
       </c>
       <c r="M25" t="n">
-        <v>983.9813277239498</v>
+        <v>3856.786138513316</v>
       </c>
       <c r="N25" t="n">
-        <v>1318.687152545534</v>
+        <v>4191.4919633349</v>
       </c>
       <c r="O25" t="n">
-        <v>1611.825859961355</v>
+        <v>4484.630670750721</v>
       </c>
       <c r="P25" t="n">
-        <v>1839.135983203279</v>
+        <v>4711.940793992646</v>
       </c>
       <c r="Q25" t="n">
-        <v>1913.078649972671</v>
+        <v>4785.883460762037</v>
       </c>
       <c r="R25" t="n">
-        <v>1913.078649972671</v>
+        <v>4694.043622091449</v>
       </c>
       <c r="S25" t="n">
-        <v>1720.613957833929</v>
+        <v>4625.84057514926</v>
       </c>
       <c r="T25" t="n">
-        <v>1720.613957833929</v>
+        <v>4625.84057514926</v>
       </c>
       <c r="U25" t="n">
-        <v>1720.613957833929</v>
+        <v>4625.84057514926</v>
       </c>
       <c r="V25" t="n">
-        <v>1720.613957833929</v>
+        <v>4625.84057514926</v>
       </c>
       <c r="W25" t="n">
-        <v>1431.196787796968</v>
+        <v>4625.84057514926</v>
       </c>
       <c r="X25" t="n">
-        <v>1203.207236898951</v>
+        <v>4397.851024251243</v>
       </c>
       <c r="Y25" t="n">
-        <v>982.414657755421</v>
+        <v>4177.058445107713</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2379.333770138673</v>
+        <v>2379.333770138674</v>
       </c>
       <c r="C26" t="n">
-        <v>2010.371253198261</v>
+        <v>2010.371253198262</v>
       </c>
       <c r="D26" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E26" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F26" t="n">
-        <v>855.3313972036598</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G26" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155741</v>
       </c>
       <c r="H26" t="n">
         <v>141.5554198924156</v>
@@ -6229,19 +6229,19 @@
         <v>276.3093906935954</v>
       </c>
       <c r="K26" t="n">
-        <v>597.708085861203</v>
+        <v>604.6058461270954</v>
       </c>
       <c r="L26" t="n">
-        <v>1327.278034693952</v>
+        <v>1453.715711762088</v>
       </c>
       <c r="M26" t="n">
-        <v>2288.68291164154</v>
+        <v>1970.102190551772</v>
       </c>
       <c r="N26" t="n">
-        <v>3251.012327070181</v>
+        <v>2932.431605980412</v>
       </c>
       <c r="O26" t="n">
-        <v>4114.52506777933</v>
+        <v>3795.944346689562</v>
       </c>
       <c r="P26" t="n">
         <v>4495.258109903959</v>
@@ -6259,19 +6259,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U26" t="n">
-        <v>4213.370243053371</v>
+        <v>4213.370243053372</v>
       </c>
       <c r="V26" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W26" t="n">
-        <v>3529.538700439686</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X26" t="n">
-        <v>3156.072942178606</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y26" t="n">
-        <v>2765.933610202795</v>
+        <v>2765.933610202796</v>
       </c>
     </row>
     <row r="27">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>972.4885300757721</v>
+        <v>124.8274669405158</v>
       </c>
       <c r="C28" t="n">
-        <v>803.5523471478652</v>
+        <v>124.8274669405158</v>
       </c>
       <c r="D28" t="n">
-        <v>803.5523471478652</v>
+        <v>124.8274669405158</v>
       </c>
       <c r="E28" t="n">
-        <v>655.6392535654721</v>
+        <v>124.8274669405158</v>
       </c>
       <c r="F28" t="n">
-        <v>508.7493060675617</v>
+        <v>124.8274669405158</v>
       </c>
       <c r="G28" t="n">
-        <v>341.001780409306</v>
+        <v>124.8274669405158</v>
       </c>
       <c r="H28" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I28" t="n">
         <v>95.71766921524075</v>
@@ -6408,28 +6408,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R28" t="n">
-        <v>1913.078649972671</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="S28" t="n">
-        <v>1913.078649972671</v>
+        <v>1628.774119163341</v>
       </c>
       <c r="T28" t="n">
-        <v>1913.078649972671</v>
+        <v>1406.816559682884</v>
       </c>
       <c r="U28" t="n">
-        <v>1623.973345514697</v>
+        <v>1117.711255224911</v>
       </c>
       <c r="V28" t="n">
-        <v>1482.698279256263</v>
+        <v>863.0267670190239</v>
       </c>
       <c r="W28" t="n">
-        <v>1193.281109219302</v>
+        <v>573.6095969820633</v>
       </c>
       <c r="X28" t="n">
-        <v>1193.281109219302</v>
+        <v>345.620046084046</v>
       </c>
       <c r="Y28" t="n">
-        <v>972.4885300757721</v>
+        <v>124.8274669405158</v>
       </c>
     </row>
     <row r="29">
@@ -6445,13 +6445,13 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D29" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E29" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F29" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036597</v>
       </c>
       <c r="G29" t="n">
         <v>440.1593205155743</v>
@@ -6469,13 +6469,13 @@
         <v>597.708085861203</v>
       </c>
       <c r="L29" t="n">
-        <v>1327.278034693952</v>
+        <v>1446.817951496196</v>
       </c>
       <c r="M29" t="n">
-        <v>2288.68291164154</v>
+        <v>2408.222828443784</v>
       </c>
       <c r="N29" t="n">
-        <v>3251.012327070181</v>
+        <v>3370.552243872424</v>
       </c>
       <c r="O29" t="n">
         <v>4114.52506777933</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>729.13253012542</v>
+        <v>771.2733255834662</v>
       </c>
       <c r="C31" t="n">
-        <v>560.1963471975131</v>
+        <v>602.3371426555593</v>
       </c>
       <c r="D31" t="n">
-        <v>410.0797077851773</v>
+        <v>602.3371426555593</v>
       </c>
       <c r="E31" t="n">
-        <v>410.0797077851773</v>
+        <v>602.3371426555593</v>
       </c>
       <c r="F31" t="n">
-        <v>410.0797077851773</v>
+        <v>508.7493060675617</v>
       </c>
       <c r="G31" t="n">
-        <v>242.3321821269216</v>
+        <v>341.001780409306</v>
       </c>
       <c r="H31" t="n">
-        <v>95.71766921524075</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="I31" t="n">
         <v>95.71766921524075</v>
@@ -6645,28 +6645,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R31" t="n">
-        <v>1821.238811302082</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S31" t="n">
-        <v>1821.238811302082</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="T31" t="n">
-        <v>1599.281251821626</v>
+        <v>1691.121090492214</v>
       </c>
       <c r="U31" t="n">
-        <v>1310.175947363652</v>
+        <v>1691.121090492214</v>
       </c>
       <c r="V31" t="n">
-        <v>1310.175947363652</v>
+        <v>1691.121090492214</v>
       </c>
       <c r="W31" t="n">
-        <v>1310.175947363652</v>
+        <v>1401.703920455253</v>
       </c>
       <c r="X31" t="n">
-        <v>1131.57357409919</v>
+        <v>1173.714369557236</v>
       </c>
       <c r="Y31" t="n">
-        <v>910.7809949556597</v>
+        <v>952.9217904137059</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2379.333770138674</v>
+        <v>2379.333770138673</v>
       </c>
       <c r="C32" t="n">
-        <v>2010.371253198262</v>
+        <v>2010.371253198261</v>
       </c>
       <c r="D32" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E32" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F32" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036598</v>
       </c>
       <c r="G32" t="n">
-        <v>440.1593205155741</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H32" t="n">
         <v>141.5554198924156</v>
@@ -6706,13 +6706,13 @@
         <v>597.708085861203</v>
       </c>
       <c r="L32" t="n">
-        <v>1327.278034693952</v>
+        <v>1446.817951496196</v>
       </c>
       <c r="M32" t="n">
-        <v>2288.68291164154</v>
+        <v>2408.222828443784</v>
       </c>
       <c r="N32" t="n">
-        <v>3251.012327070181</v>
+        <v>3370.552243872424</v>
       </c>
       <c r="O32" t="n">
         <v>4114.52506777933</v>
@@ -6733,19 +6733,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U32" t="n">
-        <v>4213.370243053372</v>
+        <v>4213.370243053371</v>
       </c>
       <c r="V32" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W32" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439686</v>
       </c>
       <c r="X32" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178606</v>
       </c>
       <c r="Y32" t="n">
-        <v>2765.933610202796</v>
+        <v>2765.933610202795</v>
       </c>
     </row>
     <row r="33">
@@ -6834,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>974.6920759057148</v>
+        <v>803.5523471478652</v>
       </c>
       <c r="C34" t="n">
-        <v>805.7558929778079</v>
+        <v>803.5523471478652</v>
       </c>
       <c r="D34" t="n">
-        <v>655.6392535654721</v>
+        <v>803.5523471478652</v>
       </c>
       <c r="E34" t="n">
         <v>655.6392535654721</v>
@@ -6885,25 +6885,25 @@
         <v>1821.238811302082</v>
       </c>
       <c r="S34" t="n">
-        <v>1714.056356321149</v>
+        <v>1628.774119163341</v>
       </c>
       <c r="T34" t="n">
-        <v>1492.098796840693</v>
+        <v>1406.816559682884</v>
       </c>
       <c r="U34" t="n">
-        <v>1492.098796840693</v>
+        <v>1117.711255224911</v>
       </c>
       <c r="V34" t="n">
-        <v>1492.098796840693</v>
+        <v>1092.969517184826</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.681626803732</v>
+        <v>803.5523471478652</v>
       </c>
       <c r="X34" t="n">
-        <v>974.6920759057148</v>
+        <v>803.5523471478652</v>
       </c>
       <c r="Y34" t="n">
-        <v>974.6920759057148</v>
+        <v>803.5523471478652</v>
       </c>
     </row>
     <row r="35">
@@ -6928,7 +6928,7 @@
         <v>855.3313972036599</v>
       </c>
       <c r="G35" t="n">
-        <v>440.1593205155741</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H35" t="n">
         <v>141.5554198924156</v>
@@ -6943,13 +6943,13 @@
         <v>597.708085861203</v>
       </c>
       <c r="L35" t="n">
-        <v>1446.817951496196</v>
+        <v>1327.278034693952</v>
       </c>
       <c r="M35" t="n">
-        <v>2408.222828443784</v>
+        <v>2288.68291164154</v>
       </c>
       <c r="N35" t="n">
-        <v>3370.552243872424</v>
+        <v>3251.012327070181</v>
       </c>
       <c r="O35" t="n">
         <v>4114.52506777933</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>635.8048214896095</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C37" t="n">
-        <v>635.8048214896095</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D37" t="n">
-        <v>635.8048214896095</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E37" t="n">
-        <v>487.8917279072164</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F37" t="n">
-        <v>341.001780409306</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G37" t="n">
-        <v>341.001780409306</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H37" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I37" t="n">
         <v>95.71766921524075</v>
@@ -7119,28 +7119,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R37" t="n">
-        <v>1821.238811302082</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S37" t="n">
-        <v>1821.238811302082</v>
+        <v>1720.613957833929</v>
       </c>
       <c r="T37" t="n">
-        <v>1599.281251821626</v>
+        <v>1498.656398353472</v>
       </c>
       <c r="U37" t="n">
-        <v>1310.175947363652</v>
+        <v>1209.551093895499</v>
       </c>
       <c r="V37" t="n">
-        <v>1310.175947363652</v>
+        <v>954.8666056896124</v>
       </c>
       <c r="W37" t="n">
-        <v>1045.442837217867</v>
+        <v>665.4494356526518</v>
       </c>
       <c r="X37" t="n">
-        <v>817.4532863198492</v>
+        <v>437.4598847546345</v>
       </c>
       <c r="Y37" t="n">
-        <v>817.4532863198492</v>
+        <v>216.6673056111044</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2379.333770138673</v>
+        <v>2379.333770138674</v>
       </c>
       <c r="C38" t="n">
-        <v>2010.371253198261</v>
+        <v>2010.371253198262</v>
       </c>
       <c r="D38" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E38" t="n">
         <v>1266.317301993267</v>
       </c>
       <c r="F38" t="n">
-        <v>855.3313972036598</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G38" t="n">
         <v>440.1593205155743</v>
@@ -7180,13 +7180,13 @@
         <v>597.708085861203</v>
       </c>
       <c r="L38" t="n">
-        <v>1327.278034693952</v>
+        <v>1446.817951496196</v>
       </c>
       <c r="M38" t="n">
-        <v>2288.68291164154</v>
+        <v>2408.222828443784</v>
       </c>
       <c r="N38" t="n">
-        <v>3251.012327070181</v>
+        <v>3370.552243872424</v>
       </c>
       <c r="O38" t="n">
         <v>4114.52506777933</v>
@@ -7207,19 +7207,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U38" t="n">
-        <v>4213.370243053371</v>
+        <v>4213.370243053372</v>
       </c>
       <c r="V38" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W38" t="n">
-        <v>3529.538700439686</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X38" t="n">
-        <v>3156.072942178606</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y38" t="n">
-        <v>2765.933610202795</v>
+        <v>2765.933610202796</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>962.9247759646606</v>
+        <v>3161.309648047117</v>
       </c>
       <c r="C39" t="n">
-        <v>788.4717466835336</v>
+        <v>2986.85661876599</v>
       </c>
       <c r="D39" t="n">
-        <v>639.5373370222824</v>
+        <v>2837.922209104739</v>
       </c>
       <c r="E39" t="n">
-        <v>480.2998820168269</v>
+        <v>2678.684754099283</v>
       </c>
       <c r="F39" t="n">
-        <v>333.7653240437119</v>
+        <v>2532.150196126168</v>
       </c>
       <c r="G39" t="n">
-        <v>197.3489189817664</v>
+        <v>2395.733791064222</v>
       </c>
       <c r="H39" t="n">
-        <v>106.3322115589798</v>
+        <v>2304.717083641436</v>
       </c>
       <c r="I39" t="n">
-        <v>95.71766921524075</v>
+        <v>2294.102541297696</v>
       </c>
       <c r="J39" t="n">
-        <v>184.4590143936093</v>
+        <v>2382.843886476065</v>
       </c>
       <c r="K39" t="n">
-        <v>488.1430095111811</v>
+        <v>2686.527881593638</v>
       </c>
       <c r="L39" t="n">
-        <v>843.4975491433823</v>
+        <v>3041.882421225839</v>
       </c>
       <c r="M39" t="n">
-        <v>1277.536404075618</v>
+        <v>3475.921276158075</v>
       </c>
       <c r="N39" t="n">
-        <v>1737.471620890736</v>
+        <v>3935.856492973193</v>
       </c>
       <c r="O39" t="n">
-        <v>2136.002693439725</v>
+        <v>4334.387565522181</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.525948037006</v>
+        <v>4634.910820119462</v>
       </c>
       <c r="Q39" t="n">
-        <v>2587.498588679581</v>
+        <v>4785.883460762037</v>
       </c>
       <c r="R39" t="n">
-        <v>2587.498588679581</v>
+        <v>4785.883460762037</v>
       </c>
       <c r="S39" t="n">
-        <v>2457.070587135881</v>
+        <v>4655.455459218338</v>
       </c>
       <c r="T39" t="n">
-        <v>2264.212730681702</v>
+        <v>4462.597602764158</v>
       </c>
       <c r="U39" t="n">
-        <v>2036.14137691516</v>
+        <v>4234.526248997616</v>
       </c>
       <c r="V39" t="n">
-        <v>1800.989268683417</v>
+        <v>3999.374140765873</v>
       </c>
       <c r="W39" t="n">
-        <v>1546.751911955215</v>
+        <v>3745.136784037672</v>
       </c>
       <c r="X39" t="n">
-        <v>1338.900411749682</v>
+        <v>3537.285283832139</v>
       </c>
       <c r="Y39" t="n">
-        <v>1131.140112984729</v>
+        <v>3329.524985067185</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.3144713837966</v>
+        <v>531.0709760837877</v>
       </c>
       <c r="C40" t="n">
-        <v>411.3782884558896</v>
+        <v>362.1347931558809</v>
       </c>
       <c r="D40" t="n">
-        <v>411.3782884558896</v>
+        <v>362.1347931558809</v>
       </c>
       <c r="E40" t="n">
-        <v>263.4651948734965</v>
+        <v>362.1347931558809</v>
       </c>
       <c r="F40" t="n">
-        <v>263.4651948734965</v>
+        <v>362.1347931558809</v>
       </c>
       <c r="G40" t="n">
-        <v>95.71766921524075</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="H40" t="n">
-        <v>95.71766921524075</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="I40" t="n">
         <v>95.71766921524075</v>
@@ -7356,28 +7356,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R40" t="n">
-        <v>1913.078649972671</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="S40" t="n">
-        <v>1913.078649972671</v>
+        <v>1628.774119163341</v>
       </c>
       <c r="T40" t="n">
-        <v>1913.078649972671</v>
+        <v>1406.816559682884</v>
       </c>
       <c r="U40" t="n">
-        <v>1623.973345514697</v>
+        <v>1117.711255224911</v>
       </c>
       <c r="V40" t="n">
-        <v>1369.288857308811</v>
+        <v>1041.280725264279</v>
       </c>
       <c r="W40" t="n">
-        <v>1079.87168727185</v>
+        <v>751.8635552273179</v>
       </c>
       <c r="X40" t="n">
-        <v>851.8821363738325</v>
+        <v>751.8635552273179</v>
       </c>
       <c r="Y40" t="n">
-        <v>761.9629362140363</v>
+        <v>531.0709760837877</v>
       </c>
     </row>
     <row r="41">
@@ -7393,19 +7393,19 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D41" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E41" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F41" t="n">
-        <v>855.3313972036597</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G41" t="n">
-        <v>440.1593205155742</v>
+        <v>440.1593205155741</v>
       </c>
       <c r="H41" t="n">
-        <v>141.5554198924154</v>
+        <v>141.5554198924156</v>
       </c>
       <c r="I41" t="n">
         <v>95.71766921524075</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3750.125869083408</v>
+        <v>449.4410924000626</v>
       </c>
       <c r="C43" t="n">
-        <v>3581.189686155501</v>
+        <v>280.5049094721558</v>
       </c>
       <c r="D43" t="n">
-        <v>3431.073046743166</v>
+        <v>130.38827005982</v>
       </c>
       <c r="E43" t="n">
-        <v>3283.159953160773</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F43" t="n">
-        <v>3136.270005662862</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G43" t="n">
-        <v>2968.522480004607</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H43" t="n">
-        <v>2968.522480004607</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I43" t="n">
-        <v>2968.522480004607</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J43" t="n">
-        <v>3010.548472161395</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K43" t="n">
-        <v>3209.44692386325</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L43" t="n">
-        <v>3519.494898304408</v>
+        <v>646.6900875150416</v>
       </c>
       <c r="M43" t="n">
-        <v>3856.786138513316</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N43" t="n">
-        <v>4191.4919633349</v>
+        <v>1318.687152545534</v>
       </c>
       <c r="O43" t="n">
-        <v>4484.630670750721</v>
+        <v>1611.825859961355</v>
       </c>
       <c r="P43" t="n">
-        <v>4711.940793992646</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q43" t="n">
-        <v>4785.883460762037</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="R43" t="n">
-        <v>4694.043622091449</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S43" t="n">
-        <v>4501.578929952707</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="T43" t="n">
-        <v>4501.578929952707</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="U43" t="n">
-        <v>4501.578929952707</v>
+        <v>1623.973345514697</v>
       </c>
       <c r="V43" t="n">
-        <v>4246.89444174682</v>
+        <v>1369.288857308811</v>
       </c>
       <c r="W43" t="n">
-        <v>4246.89444174682</v>
+        <v>1079.87168727185</v>
       </c>
       <c r="X43" t="n">
-        <v>4152.566913057179</v>
+        <v>851.8821363738325</v>
       </c>
       <c r="Y43" t="n">
-        <v>3931.774333913648</v>
+        <v>631.0895572303024</v>
       </c>
     </row>
     <row r="44">
@@ -7633,13 +7633,13 @@
         <v>1652.105554591512</v>
       </c>
       <c r="E44" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F44" t="n">
         <v>855.3313972036599</v>
       </c>
       <c r="G44" t="n">
-        <v>440.1593205155741</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H44" t="n">
         <v>141.5554198924156</v>
@@ -7651,16 +7651,16 @@
         <v>276.3093906935954</v>
       </c>
       <c r="K44" t="n">
-        <v>918.6120443066561</v>
+        <v>597.708085861203</v>
       </c>
       <c r="L44" t="n">
-        <v>1767.721909941649</v>
+        <v>1446.817951496196</v>
       </c>
       <c r="M44" t="n">
-        <v>2729.126786889237</v>
+        <v>2408.222828443784</v>
       </c>
       <c r="N44" t="n">
-        <v>3628.004506520298</v>
+        <v>3370.552243872424</v>
       </c>
       <c r="O44" t="n">
         <v>4114.52506777933</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>954.8576438298521</v>
+        <v>1096.215354379703</v>
       </c>
       <c r="C46" t="n">
-        <v>785.9214609019452</v>
+        <v>927.2791714517959</v>
       </c>
       <c r="D46" t="n">
-        <v>635.8048214896095</v>
+        <v>777.1625320394602</v>
       </c>
       <c r="E46" t="n">
-        <v>487.8917279072164</v>
+        <v>629.2494384570671</v>
       </c>
       <c r="F46" t="n">
-        <v>341.001780409306</v>
+        <v>482.3594909591567</v>
       </c>
       <c r="G46" t="n">
-        <v>341.001780409306</v>
+        <v>314.6119653009009</v>
       </c>
       <c r="H46" t="n">
-        <v>194.3872674976251</v>
+        <v>167.9974523892201</v>
       </c>
       <c r="I46" t="n">
         <v>95.71766921524075</v>
@@ -7830,28 +7830,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R46" t="n">
-        <v>1821.238811302082</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S46" t="n">
-        <v>1646.715857840582</v>
+        <v>1720.613957833929</v>
       </c>
       <c r="T46" t="n">
-        <v>1646.715857840582</v>
+        <v>1498.656398353472</v>
       </c>
       <c r="U46" t="n">
-        <v>1646.715857840582</v>
+        <v>1498.656398353472</v>
       </c>
       <c r="V46" t="n">
-        <v>1646.715857840582</v>
+        <v>1498.656398353472</v>
       </c>
       <c r="W46" t="n">
-        <v>1357.298687803622</v>
+        <v>1498.656398353472</v>
       </c>
       <c r="X46" t="n">
-        <v>1357.298687803622</v>
+        <v>1498.656398353472</v>
       </c>
       <c r="Y46" t="n">
-        <v>1136.506108660092</v>
+        <v>1277.863819209942</v>
       </c>
     </row>
   </sheetData>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8303,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8312,7 +8312,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>275.0442842992665</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>90.70213529832199</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>260.0527905534096</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>74.60209794880339</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>74.60209794880421</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>3.419393410990466</v>
+        <v>3.419393410990523</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8932,13 +8932,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>100.4832365912983</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -8947,7 +8947,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>120.1689464528336</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>74.60209794880339</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>74.60209794880376</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>3.419393410990466</v>
+        <v>3.419393410990523</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9169,7 +9169,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>296.9138238411135</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9178,7 +9178,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>260.0527905534096</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>74.60209794880339</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>74.60209794880376</v>
       </c>
       <c r="R18" t="n">
-        <v>3.419393410990466</v>
+        <v>3.419393410990523</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9406,7 +9406,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>296.9138238411135</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9415,7 +9415,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>260.0527905534082</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9482,7 +9482,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>74.60209794880342</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>74.6020979488037</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>3.419393410990466</v>
@@ -9640,22 +9640,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>6.967434612012596</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>260.0527905534082</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9719,7 +9719,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>74.60209794880342</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9728,7 +9728,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>74.60209794880348</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9877,13 +9877,13 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>6.967434612012596</v>
       </c>
       <c r="L26" t="n">
-        <v>296.9138238411135</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9892,7 +9892,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10117,7 +10117,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>296.9138238411135</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10126,7 +10126,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>260.0527905534082</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10354,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>296.9138238411135</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10363,7 +10363,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>260.0527905534082</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10591,7 +10591,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>296.9138238411135</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10600,7 +10600,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>260.0527905534082</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10828,7 +10828,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>296.9138238411135</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10837,7 +10837,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>260.0527905534082</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -10904,7 +10904,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>74.60209794880342</v>
+        <v>74.60209794880456</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -11299,7 +11299,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11308,10 +11308,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>373.2543023942278</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>260.0527905534082</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>90.92144028388269</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>161.4979673836806</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>172.1866241507282</v>
       </c>
     </row>
     <row r="14">
@@ -23658,22 +23658,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>127.9717325789995</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H16" t="n">
         <v>145.148367782564</v>
       </c>
       <c r="I16" t="n">
-        <v>97.68290229956055</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>90.92144028388266</v>
+        <v>30.11152938138109</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>67.0822323975148</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>42.35111287998458</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>97.68290229956057</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>90.92144028388269</v>
       </c>
       <c r="S19" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24135,16 +24135,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>97.68290229956055</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T22" t="n">
-        <v>214.7379312269275</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>215.7502681532702</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24372,10 +24372,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>26.7655761277969</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>123.0190287445873</v>
       </c>
       <c r="T25" t="n">
         <v>219.7379838856521</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>116.3296680345417</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>112.2753277279777</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>52.76908980081366</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>97.68290229956055</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S31" t="n">
         <v>190.5400452173542</v>
@@ -24894,16 +24894,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>48.89330585721922</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25077,13 +25077,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25125,22 +25125,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>84.42941478623077</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>227.6433226641441</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>60.09184015003234</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25320,19 +25320,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.0700504016732</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S37" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>24.43721929226314</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25569,7 +25569,7 @@
         <v>145.148367782564</v>
       </c>
       <c r="I40" t="n">
-        <v>97.68290229956055</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>176.4714186628022</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>129.5646451938965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25794,13 +25794,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>112.1100678104357</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H43" t="n">
         <v>145.148367782564</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T43" t="n">
         <v>219.7379838856521</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>132.3254019862921</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>26.12591695732101</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S46" t="n">
-        <v>17.76232129046943</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2142514133935</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>839562.2517651003</v>
+        <v>839562.2517651004</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>839562.2517651002</v>
+        <v>839562.2517651004</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>839562.2517651003</v>
+        <v>839562.2517651002</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>839562.2517651002</v>
+        <v>839562.2517651003</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>839562.2517651003</v>
+        <v>839562.2517651002</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>839562.2517651003</v>
+        <v>839562.2517651002</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>839562.2517651001</v>
+        <v>839562.2517651002</v>
       </c>
     </row>
     <row r="15">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516046</v>
+        <v>595255.2831516047</v>
       </c>
       <c r="C2" t="n">
         <v>595255.2831516047</v>
@@ -26322,40 +26322,40 @@
         <v>595255.2831516048</v>
       </c>
       <c r="E2" t="n">
-        <v>574938.4879923546</v>
+        <v>574938.487992355</v>
       </c>
       <c r="F2" t="n">
+        <v>574938.4879923547</v>
+      </c>
+      <c r="G2" t="n">
+        <v>574938.487992355</v>
+      </c>
+      <c r="H2" t="n">
         <v>574938.4879923549</v>
       </c>
-      <c r="G2" t="n">
-        <v>574938.4879923549</v>
-      </c>
-      <c r="H2" t="n">
-        <v>574938.487992355</v>
-      </c>
       <c r="I2" t="n">
-        <v>574938.4879923551</v>
+        <v>574938.4879923548</v>
       </c>
       <c r="J2" t="n">
-        <v>574938.487992355</v>
+        <v>574938.4879923553</v>
       </c>
       <c r="K2" t="n">
-        <v>574938.487992355</v>
+        <v>574938.4879923547</v>
       </c>
       <c r="L2" t="n">
         <v>574938.4879923549</v>
       </c>
       <c r="M2" t="n">
-        <v>574938.4879923548</v>
+        <v>574938.4879923551</v>
       </c>
       <c r="N2" t="n">
-        <v>574938.4879923551</v>
+        <v>574938.4879923549</v>
       </c>
       <c r="O2" t="n">
+        <v>574938.4879923553</v>
+      </c>
+      <c r="P2" t="n">
         <v>574938.4879923549</v>
-      </c>
-      <c r="P2" t="n">
-        <v>574938.4879923548</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>708251.0967518282</v>
+        <v>708251.096751828</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>197597.7130263734</v>
+        <v>198439.6015575409</v>
       </c>
       <c r="C4" t="n">
-        <v>197597.7130263734</v>
+        <v>198439.6015575409</v>
       </c>
       <c r="D4" t="n">
-        <v>197597.7130263734</v>
+        <v>198439.6015575409</v>
       </c>
       <c r="E4" t="n">
-        <v>26016.16387987381</v>
+        <v>26378.93459843435</v>
       </c>
       <c r="F4" t="n">
-        <v>26016.16387987379</v>
+        <v>26378.93459843435</v>
       </c>
       <c r="G4" t="n">
-        <v>26016.16387987381</v>
+        <v>26378.93459843435</v>
       </c>
       <c r="H4" t="n">
-        <v>26016.16387987381</v>
+        <v>26378.93459843433</v>
       </c>
       <c r="I4" t="n">
-        <v>26016.1638798738</v>
+        <v>26378.93459843432</v>
       </c>
       <c r="J4" t="n">
-        <v>26016.16387987381</v>
+        <v>26378.93459843433</v>
       </c>
       <c r="K4" t="n">
-        <v>26016.16387987381</v>
+        <v>26378.93459843433</v>
       </c>
       <c r="L4" t="n">
-        <v>26016.16387987381</v>
+        <v>26378.93459843433</v>
       </c>
       <c r="M4" t="n">
-        <v>26016.1638798738</v>
+        <v>26378.93459843433</v>
       </c>
       <c r="N4" t="n">
-        <v>26016.16387987381</v>
+        <v>26378.93459843433</v>
       </c>
       <c r="O4" t="n">
-        <v>26016.1638798738</v>
+        <v>26378.93459843433</v>
       </c>
       <c r="P4" t="n">
-        <v>26016.1638798738</v>
+        <v>26378.93459843433</v>
       </c>
     </row>
     <row r="5">
@@ -26478,13 +26478,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206918</v>
       </c>
       <c r="F5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206918</v>
       </c>
       <c r="G5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206918</v>
       </c>
       <c r="H5" t="n">
         <v>95967.7133920692</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-275169.3871527228</v>
+        <v>-276011.2756838901</v>
       </c>
       <c r="C6" t="n">
-        <v>314798.4920618219</v>
+        <v>313956.6035306543</v>
       </c>
       <c r="D6" t="n">
-        <v>314798.492061822</v>
+        <v>313956.6035306545</v>
       </c>
       <c r="E6" t="n">
-        <v>-255296.4860314167</v>
+        <v>-255659.2567499765</v>
       </c>
       <c r="F6" t="n">
-        <v>452954.6107204119</v>
+        <v>452591.8400018511</v>
       </c>
       <c r="G6" t="n">
-        <v>452954.6107204119</v>
+        <v>452591.8400018515</v>
       </c>
       <c r="H6" t="n">
-        <v>452954.610720412</v>
+        <v>452591.8400018514</v>
       </c>
       <c r="I6" t="n">
-        <v>452954.6107204121</v>
+        <v>452591.8400018513</v>
       </c>
       <c r="J6" t="n">
-        <v>276531.391527819</v>
+        <v>276168.6208092588</v>
       </c>
       <c r="K6" t="n">
-        <v>452954.610720412</v>
+        <v>452591.8400018511</v>
       </c>
       <c r="L6" t="n">
-        <v>452954.6107204119</v>
+        <v>452591.8400018514</v>
       </c>
       <c r="M6" t="n">
-        <v>322824.3707510023</v>
+        <v>322461.6000324422</v>
       </c>
       <c r="N6" t="n">
-        <v>452954.6107204121</v>
+        <v>452591.8400018514</v>
       </c>
       <c r="O6" t="n">
-        <v>452954.6107204119</v>
+        <v>452591.8400018517</v>
       </c>
       <c r="P6" t="n">
-        <v>452954.6107204118</v>
+        <v>452591.8400018514</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26746,13 +26746,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>1065.242421490194</v>
+        <v>1065.242421490193</v>
       </c>
       <c r="F3" t="n">
-        <v>1065.242421490194</v>
+        <v>1065.242421490193</v>
       </c>
       <c r="G3" t="n">
-        <v>1065.242421490194</v>
+        <v>1065.242421490193</v>
       </c>
       <c r="H3" t="n">
         <v>1065.242421490194</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>687.498757273107</v>
+        <v>687.4987572731068</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>522.1835924359539</v>
+        <v>522.1835924359538</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>522.1835924359539</v>
+        <v>522.1835924359538</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>522.1835924359539</v>
+        <v>522.1835924359538</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>218.8388043680905</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27441,13 +27441,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>209.0342253879119</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>125.6900249618416</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,16 +27581,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>123.9289676594883</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>349.5857784846688</v>
+        <v>377.2225941234674</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27827,22 +27827,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>96.01048066168096</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>230.6199858141418</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>27.7774355788884</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27912,16 +27912,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>75.67326561448249</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28067,10 +28067,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>262.9528943355529</v>
+        <v>123.8906333253337</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31752,10 +31752,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.282381593930424</v>
+        <v>4.282381593930423</v>
       </c>
       <c r="H11" t="n">
-        <v>43.85694049883996</v>
+        <v>43.85694049883995</v>
       </c>
       <c r="I11" t="n">
         <v>165.0965164000028</v>
@@ -31764,31 +31764,31 @@
         <v>363.4617848078526</v>
       </c>
       <c r="K11" t="n">
-        <v>544.7349976789276</v>
+        <v>544.7349976789275</v>
       </c>
       <c r="L11" t="n">
-        <v>675.7919333841759</v>
+        <v>675.7919333841758</v>
       </c>
       <c r="M11" t="n">
-        <v>751.9487370552361</v>
+        <v>751.9487370552359</v>
       </c>
       <c r="N11" t="n">
-        <v>764.1160537589909</v>
+        <v>764.1160537589908</v>
       </c>
       <c r="O11" t="n">
-        <v>721.5331217843452</v>
+        <v>721.5331217843451</v>
       </c>
       <c r="P11" t="n">
-        <v>615.8118261841878</v>
+        <v>615.8118261841877</v>
       </c>
       <c r="Q11" t="n">
-        <v>462.4490353515544</v>
+        <v>462.4490353515542</v>
       </c>
       <c r="R11" t="n">
         <v>269.0031527997322</v>
       </c>
       <c r="S11" t="n">
-        <v>97.58477057168963</v>
+        <v>97.5847705716896</v>
       </c>
       <c r="T11" t="n">
         <v>18.74612542743044</v>
@@ -31837,7 +31837,7 @@
         <v>22.1289038879378</v>
       </c>
       <c r="I12" t="n">
-        <v>78.88823593111341</v>
+        <v>78.8882359311134</v>
       </c>
       <c r="J12" t="n">
         <v>216.4753490690591</v>
@@ -31846,34 +31846,34 @@
         <v>369.9908512453251</v>
       </c>
       <c r="L12" t="n">
-        <v>497.4983592063401</v>
+        <v>497.49835920634</v>
       </c>
       <c r="M12" t="n">
-        <v>580.5571197121554</v>
+        <v>580.5571197121553</v>
       </c>
       <c r="N12" t="n">
-        <v>595.9227391693113</v>
+        <v>595.9227391693112</v>
       </c>
       <c r="O12" t="n">
-        <v>545.1528833828164</v>
+        <v>545.1528833828163</v>
       </c>
       <c r="P12" t="n">
-        <v>437.5332504418873</v>
+        <v>437.5332504418872</v>
       </c>
       <c r="Q12" t="n">
-        <v>292.4793908967038</v>
+        <v>292.4793908967037</v>
       </c>
       <c r="R12" t="n">
-        <v>142.2601105529735</v>
+        <v>142.2601105529734</v>
       </c>
       <c r="S12" t="n">
-        <v>42.55944957557517</v>
+        <v>42.55944957557516</v>
       </c>
       <c r="T12" t="n">
-        <v>9.235450805183845</v>
+        <v>9.235450805183843</v>
       </c>
       <c r="U12" t="n">
-        <v>0.150741852097669</v>
+        <v>0.1507418520976689</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,31 +31910,31 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.920928956785595</v>
+        <v>1.920928956785594</v>
       </c>
       <c r="H13" t="n">
         <v>17.07880472487557</v>
       </c>
       <c r="I13" t="n">
-        <v>57.76757262769773</v>
+        <v>57.76757262769772</v>
       </c>
       <c r="J13" t="n">
-        <v>135.8096772447416</v>
+        <v>135.8096772447415</v>
       </c>
       <c r="K13" t="n">
         <v>223.1770187974536</v>
       </c>
       <c r="L13" t="n">
-        <v>285.5897469024693</v>
+        <v>285.5897469024692</v>
       </c>
       <c r="M13" t="n">
-        <v>301.1143454714001</v>
+        <v>301.1143454714</v>
       </c>
       <c r="N13" t="n">
         <v>293.9545193597449</v>
       </c>
       <c r="O13" t="n">
-        <v>271.5145765463859</v>
+        <v>271.5145765463858</v>
       </c>
       <c r="P13" t="n">
         <v>232.3276258279595</v>
@@ -31943,13 +31943,13 @@
         <v>160.8516056450192</v>
       </c>
       <c r="R13" t="n">
-        <v>86.37195109328682</v>
+        <v>86.3719510932868</v>
       </c>
       <c r="S13" t="n">
-        <v>33.47655281961804</v>
+        <v>33.47655281961803</v>
       </c>
       <c r="T13" t="n">
-        <v>8.207605542629357</v>
+        <v>8.207605542629356</v>
       </c>
       <c r="U13" t="n">
         <v>0.1047779430973962</v>
@@ -31989,10 +31989,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.282381593930424</v>
+        <v>4.282381593930423</v>
       </c>
       <c r="H14" t="n">
-        <v>43.85694049883996</v>
+        <v>43.85694049883995</v>
       </c>
       <c r="I14" t="n">
         <v>165.0965164000028</v>
@@ -32001,31 +32001,31 @@
         <v>363.4617848078526</v>
       </c>
       <c r="K14" t="n">
-        <v>544.7349976789276</v>
+        <v>544.7349976789275</v>
       </c>
       <c r="L14" t="n">
-        <v>675.7919333841759</v>
+        <v>675.7919333841758</v>
       </c>
       <c r="M14" t="n">
-        <v>751.9487370552361</v>
+        <v>751.9487370552359</v>
       </c>
       <c r="N14" t="n">
-        <v>764.1160537589909</v>
+        <v>764.1160537589908</v>
       </c>
       <c r="O14" t="n">
-        <v>721.5331217843452</v>
+        <v>721.5331217843451</v>
       </c>
       <c r="P14" t="n">
-        <v>615.8118261841878</v>
+        <v>615.8118261841877</v>
       </c>
       <c r="Q14" t="n">
-        <v>462.4490353515544</v>
+        <v>462.4490353515542</v>
       </c>
       <c r="R14" t="n">
         <v>269.0031527997322</v>
       </c>
       <c r="S14" t="n">
-        <v>97.58477057168963</v>
+        <v>97.5847705716896</v>
       </c>
       <c r="T14" t="n">
         <v>18.74612542743044</v>
@@ -32074,7 +32074,7 @@
         <v>22.1289038879378</v>
       </c>
       <c r="I15" t="n">
-        <v>78.88823593111341</v>
+        <v>78.8882359311134</v>
       </c>
       <c r="J15" t="n">
         <v>216.4753490690591</v>
@@ -32083,34 +32083,34 @@
         <v>369.9908512453251</v>
       </c>
       <c r="L15" t="n">
-        <v>497.4983592063401</v>
+        <v>497.49835920634</v>
       </c>
       <c r="M15" t="n">
-        <v>580.5571197121554</v>
+        <v>580.5571197121553</v>
       </c>
       <c r="N15" t="n">
-        <v>595.9227391693113</v>
+        <v>595.9227391693112</v>
       </c>
       <c r="O15" t="n">
-        <v>545.1528833828164</v>
+        <v>545.1528833828163</v>
       </c>
       <c r="P15" t="n">
-        <v>437.5332504418873</v>
+        <v>437.5332504418872</v>
       </c>
       <c r="Q15" t="n">
-        <v>292.4793908967038</v>
+        <v>292.4793908967037</v>
       </c>
       <c r="R15" t="n">
-        <v>142.2601105529735</v>
+        <v>142.2601105529734</v>
       </c>
       <c r="S15" t="n">
-        <v>42.55944957557517</v>
+        <v>42.55944957557516</v>
       </c>
       <c r="T15" t="n">
-        <v>9.235450805183845</v>
+        <v>9.235450805183843</v>
       </c>
       <c r="U15" t="n">
-        <v>0.150741852097669</v>
+        <v>0.1507418520976689</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,31 +32147,31 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.920928956785595</v>
+        <v>1.920928956785594</v>
       </c>
       <c r="H16" t="n">
         <v>17.07880472487557</v>
       </c>
       <c r="I16" t="n">
-        <v>57.76757262769773</v>
+        <v>57.76757262769772</v>
       </c>
       <c r="J16" t="n">
-        <v>135.8096772447416</v>
+        <v>135.8096772447415</v>
       </c>
       <c r="K16" t="n">
         <v>223.1770187974536</v>
       </c>
       <c r="L16" t="n">
-        <v>285.5897469024693</v>
+        <v>285.5897469024692</v>
       </c>
       <c r="M16" t="n">
-        <v>301.1143454714001</v>
+        <v>301.1143454714</v>
       </c>
       <c r="N16" t="n">
         <v>293.9545193597449</v>
       </c>
       <c r="O16" t="n">
-        <v>271.5145765463859</v>
+        <v>271.5145765463858</v>
       </c>
       <c r="P16" t="n">
         <v>232.3276258279595</v>
@@ -32180,13 +32180,13 @@
         <v>160.8516056450192</v>
       </c>
       <c r="R16" t="n">
-        <v>86.37195109328682</v>
+        <v>86.3719510932868</v>
       </c>
       <c r="S16" t="n">
-        <v>33.47655281961804</v>
+        <v>33.47655281961803</v>
       </c>
       <c r="T16" t="n">
-        <v>8.207605542629357</v>
+        <v>8.207605542629356</v>
       </c>
       <c r="U16" t="n">
         <v>0.1047779430973962</v>
@@ -32226,10 +32226,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.282381593930424</v>
+        <v>4.282381593930423</v>
       </c>
       <c r="H17" t="n">
-        <v>43.85694049883996</v>
+        <v>43.85694049883995</v>
       </c>
       <c r="I17" t="n">
         <v>165.0965164000028</v>
@@ -32238,31 +32238,31 @@
         <v>363.4617848078526</v>
       </c>
       <c r="K17" t="n">
-        <v>544.7349976789276</v>
+        <v>544.7349976789275</v>
       </c>
       <c r="L17" t="n">
-        <v>675.7919333841759</v>
+        <v>675.7919333841758</v>
       </c>
       <c r="M17" t="n">
-        <v>751.9487370552361</v>
+        <v>751.9487370552359</v>
       </c>
       <c r="N17" t="n">
-        <v>764.1160537589909</v>
+        <v>764.1160537589908</v>
       </c>
       <c r="O17" t="n">
-        <v>721.5331217843452</v>
+        <v>721.5331217843451</v>
       </c>
       <c r="P17" t="n">
-        <v>615.8118261841878</v>
+        <v>615.8118261841877</v>
       </c>
       <c r="Q17" t="n">
-        <v>462.4490353515544</v>
+        <v>462.4490353515542</v>
       </c>
       <c r="R17" t="n">
         <v>269.0031527997322</v>
       </c>
       <c r="S17" t="n">
-        <v>97.58477057168963</v>
+        <v>97.5847705716896</v>
       </c>
       <c r="T17" t="n">
         <v>18.74612542743044</v>
@@ -32311,7 +32311,7 @@
         <v>22.1289038879378</v>
       </c>
       <c r="I18" t="n">
-        <v>78.88823593111341</v>
+        <v>78.8882359311134</v>
       </c>
       <c r="J18" t="n">
         <v>216.4753490690591</v>
@@ -32320,34 +32320,34 @@
         <v>369.9908512453251</v>
       </c>
       <c r="L18" t="n">
-        <v>497.4983592063401</v>
+        <v>497.49835920634</v>
       </c>
       <c r="M18" t="n">
-        <v>580.5571197121554</v>
+        <v>580.5571197121553</v>
       </c>
       <c r="N18" t="n">
-        <v>595.9227391693113</v>
+        <v>595.9227391693112</v>
       </c>
       <c r="O18" t="n">
-        <v>545.1528833828164</v>
+        <v>545.1528833828163</v>
       </c>
       <c r="P18" t="n">
-        <v>437.5332504418873</v>
+        <v>437.5332504418872</v>
       </c>
       <c r="Q18" t="n">
-        <v>292.4793908967038</v>
+        <v>292.4793908967037</v>
       </c>
       <c r="R18" t="n">
-        <v>142.2601105529735</v>
+        <v>142.2601105529734</v>
       </c>
       <c r="S18" t="n">
-        <v>42.55944957557517</v>
+        <v>42.55944957557516</v>
       </c>
       <c r="T18" t="n">
-        <v>9.235450805183845</v>
+        <v>9.235450805183843</v>
       </c>
       <c r="U18" t="n">
-        <v>0.150741852097669</v>
+        <v>0.1507418520976689</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,31 +32384,31 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.920928956785595</v>
+        <v>1.920928956785594</v>
       </c>
       <c r="H19" t="n">
         <v>17.07880472487557</v>
       </c>
       <c r="I19" t="n">
-        <v>57.76757262769773</v>
+        <v>57.76757262769772</v>
       </c>
       <c r="J19" t="n">
-        <v>135.8096772447416</v>
+        <v>135.8096772447415</v>
       </c>
       <c r="K19" t="n">
         <v>223.1770187974536</v>
       </c>
       <c r="L19" t="n">
-        <v>285.5897469024693</v>
+        <v>285.5897469024692</v>
       </c>
       <c r="M19" t="n">
-        <v>301.1143454714001</v>
+        <v>301.1143454714</v>
       </c>
       <c r="N19" t="n">
         <v>293.9545193597449</v>
       </c>
       <c r="O19" t="n">
-        <v>271.5145765463859</v>
+        <v>271.5145765463858</v>
       </c>
       <c r="P19" t="n">
         <v>232.3276258279595</v>
@@ -32417,13 +32417,13 @@
         <v>160.8516056450192</v>
       </c>
       <c r="R19" t="n">
-        <v>86.37195109328682</v>
+        <v>86.3719510932868</v>
       </c>
       <c r="S19" t="n">
-        <v>33.47655281961804</v>
+        <v>33.47655281961803</v>
       </c>
       <c r="T19" t="n">
-        <v>8.207605542629357</v>
+        <v>8.207605542629356</v>
       </c>
       <c r="U19" t="n">
         <v>0.1047779430973962</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35023,7 +35023,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35032,7 +35032,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>351.5124954532401</v>
+        <v>182.4158802811663</v>
       </c>
       <c r="K11" t="n">
-        <v>648.7905592051118</v>
+        <v>324.6451466339469</v>
       </c>
       <c r="L11" t="n">
-        <v>440.0255184141886</v>
+        <v>857.686732964639</v>
       </c>
       <c r="M11" t="n">
-        <v>521.6025038279633</v>
+        <v>971.1160373207957</v>
       </c>
       <c r="N11" t="n">
-        <v>625.405125460722</v>
+        <v>972.049914574384</v>
       </c>
       <c r="O11" t="n">
-        <v>872.2350916254038</v>
+        <v>751.487700916068</v>
       </c>
       <c r="P11" t="n">
-        <v>706.3775386004008</v>
+        <v>384.5788304289181</v>
       </c>
       <c r="Q11" t="n">
-        <v>452.4583361370096</v>
+        <v>240.1433454771048</v>
       </c>
       <c r="R11" t="n">
-        <v>119.1340348585825</v>
+        <v>53.41761498560004</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>164.2398203511958</v>
+        <v>89.63772240239237</v>
       </c>
       <c r="K12" t="n">
-        <v>232.1494122709661</v>
+        <v>306.7515102197703</v>
       </c>
       <c r="L12" t="n">
-        <v>358.9439794264659</v>
+        <v>358.9439794264658</v>
       </c>
       <c r="M12" t="n">
-        <v>438.4230857901371</v>
+        <v>438.423085790137</v>
       </c>
       <c r="N12" t="n">
-        <v>464.581027085978</v>
+        <v>464.5810270859779</v>
       </c>
       <c r="O12" t="n">
-        <v>402.556638938372</v>
+        <v>402.5566389383719</v>
       </c>
       <c r="P12" t="n">
-        <v>303.5588430275571</v>
+        <v>303.558843027557</v>
       </c>
       <c r="Q12" t="n">
         <v>152.4976168106822</v>
@@ -35567,16 +35567,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>42.45049712806878</v>
+        <v>42.45049712806875</v>
       </c>
       <c r="K13" t="n">
-        <v>200.9075269715708</v>
+        <v>200.9075269715707</v>
       </c>
       <c r="L13" t="n">
         <v>313.1797721627854</v>
       </c>
       <c r="M13" t="n">
-        <v>340.6982224332407</v>
+        <v>340.6982224332406</v>
       </c>
       <c r="N13" t="n">
         <v>338.0866917389735</v>
@@ -35585,10 +35585,10 @@
         <v>296.0997044604255</v>
       </c>
       <c r="P13" t="n">
-        <v>229.606185092853</v>
+        <v>229.6061850928529</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.68956239332486</v>
+        <v>74.68956239332483</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,28 +35649,28 @@
         <v>182.4158802811663</v>
       </c>
       <c r="K14" t="n">
-        <v>648.7905592051118</v>
+        <v>648.7905592051117</v>
       </c>
       <c r="L14" t="n">
-        <v>540.5087550054869</v>
+        <v>857.686732964639</v>
       </c>
       <c r="M14" t="n">
-        <v>521.6025038279633</v>
+        <v>521.6025038279632</v>
       </c>
       <c r="N14" t="n">
-        <v>972.0499145743842</v>
+        <v>534.7029901623998</v>
       </c>
       <c r="O14" t="n">
-        <v>872.2350916254038</v>
+        <v>872.2350916254037</v>
       </c>
       <c r="P14" t="n">
         <v>706.3775386004008</v>
       </c>
       <c r="Q14" t="n">
-        <v>240.1433454771049</v>
+        <v>360.3122919299384</v>
       </c>
       <c r="R14" t="n">
-        <v>53.4176149856001</v>
+        <v>53.41761498560004</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>164.2398203511958</v>
+        <v>89.63772240239237</v>
       </c>
       <c r="K15" t="n">
         <v>232.1494122709661</v>
       </c>
       <c r="L15" t="n">
-        <v>358.9439794264659</v>
+        <v>358.9439794264658</v>
       </c>
       <c r="M15" t="n">
-        <v>438.4230857901371</v>
+        <v>438.423085790137</v>
       </c>
       <c r="N15" t="n">
-        <v>464.581027085978</v>
+        <v>464.5810270859779</v>
       </c>
       <c r="O15" t="n">
-        <v>402.556638938372</v>
+        <v>402.5566389383719</v>
       </c>
       <c r="P15" t="n">
-        <v>303.5588430275571</v>
+        <v>378.1609409763607</v>
       </c>
       <c r="Q15" t="n">
         <v>152.4976168106822</v>
@@ -35804,16 +35804,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>42.45049712806878</v>
+        <v>42.45049712806875</v>
       </c>
       <c r="K16" t="n">
-        <v>200.9075269715708</v>
+        <v>200.9075269715707</v>
       </c>
       <c r="L16" t="n">
         <v>313.1797721627854</v>
       </c>
       <c r="M16" t="n">
-        <v>340.6982224332407</v>
+        <v>340.6982224332406</v>
       </c>
       <c r="N16" t="n">
         <v>338.0866917389735</v>
@@ -35822,10 +35822,10 @@
         <v>296.0997044604255</v>
       </c>
       <c r="P16" t="n">
-        <v>229.606185092853</v>
+        <v>229.6061850928529</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.68956239332486</v>
+        <v>74.68956239332483</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>182.4158802811663</v>
       </c>
       <c r="K17" t="n">
-        <v>324.645146633947</v>
+        <v>324.6451466339469</v>
       </c>
       <c r="L17" t="n">
-        <v>736.9393422553021</v>
+        <v>857.686732964639</v>
       </c>
       <c r="M17" t="n">
-        <v>971.1160373207958</v>
+        <v>971.1160373207957</v>
       </c>
       <c r="N17" t="n">
-        <v>972.0499145743842</v>
+        <v>972.049914574384</v>
       </c>
       <c r="O17" t="n">
-        <v>872.2350916254038</v>
+        <v>751.487700916068</v>
       </c>
       <c r="P17" t="n">
-        <v>384.5788304289183</v>
+        <v>384.5788304289181</v>
       </c>
       <c r="Q17" t="n">
-        <v>240.1433454771049</v>
+        <v>240.1433454771048</v>
       </c>
       <c r="R17" t="n">
-        <v>53.4176149856001</v>
+        <v>53.41761498560004</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>164.2398203511958</v>
+        <v>89.63772240239237</v>
       </c>
       <c r="K18" t="n">
         <v>232.1494122709661</v>
       </c>
       <c r="L18" t="n">
-        <v>358.9439794264659</v>
+        <v>358.9439794264658</v>
       </c>
       <c r="M18" t="n">
-        <v>438.4230857901371</v>
+        <v>438.423085790137</v>
       </c>
       <c r="N18" t="n">
-        <v>464.581027085978</v>
+        <v>464.5810270859779</v>
       </c>
       <c r="O18" t="n">
-        <v>402.556638938372</v>
+        <v>402.5566389383719</v>
       </c>
       <c r="P18" t="n">
-        <v>303.5588430275571</v>
+        <v>303.558843027557</v>
       </c>
       <c r="Q18" t="n">
-        <v>152.4976168106822</v>
+        <v>227.0997147594859</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,16 +36041,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>42.45049712806878</v>
+        <v>42.45049712806875</v>
       </c>
       <c r="K19" t="n">
-        <v>200.9075269715708</v>
+        <v>200.9075269715707</v>
       </c>
       <c r="L19" t="n">
         <v>313.1797721627854</v>
       </c>
       <c r="M19" t="n">
-        <v>340.6982224332407</v>
+        <v>340.6982224332406</v>
       </c>
       <c r="N19" t="n">
         <v>338.0866917389735</v>
@@ -36059,10 +36059,10 @@
         <v>296.0997044604255</v>
       </c>
       <c r="P19" t="n">
-        <v>229.606185092853</v>
+        <v>229.6061850928529</v>
       </c>
       <c r="Q19" t="n">
-        <v>74.68956239332486</v>
+        <v>74.68956239332483</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,7 +36126,7 @@
         <v>324.645146633947</v>
       </c>
       <c r="L20" t="n">
-        <v>736.9393422553021</v>
+        <v>857.6867329646391</v>
       </c>
       <c r="M20" t="n">
         <v>971.1160373207958</v>
@@ -36135,7 +36135,7 @@
         <v>972.0499145743842</v>
       </c>
       <c r="O20" t="n">
-        <v>872.2350916254038</v>
+        <v>751.4877009160666</v>
       </c>
       <c r="P20" t="n">
         <v>384.5788304289183</v>
@@ -36202,7 +36202,7 @@
         <v>89.63772240239243</v>
       </c>
       <c r="K21" t="n">
-        <v>232.1494122709661</v>
+        <v>306.7515102197696</v>
       </c>
       <c r="L21" t="n">
         <v>358.9439794264659</v>
@@ -36220,7 +36220,7 @@
         <v>303.5588430275571</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.0997147594859</v>
+        <v>152.4976168106822</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36360,22 +36360,22 @@
         <v>182.4158802811663</v>
       </c>
       <c r="K23" t="n">
-        <v>324.645146633947</v>
+        <v>331.6125812459596</v>
       </c>
       <c r="L23" t="n">
         <v>857.6867329646391</v>
       </c>
       <c r="M23" t="n">
-        <v>971.1160373207958</v>
+        <v>521.6025038279633</v>
       </c>
       <c r="N23" t="n">
         <v>972.0499145743842</v>
       </c>
       <c r="O23" t="n">
-        <v>751.4877009160666</v>
+        <v>872.2350916254038</v>
       </c>
       <c r="P23" t="n">
-        <v>384.5788304289183</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q23" t="n">
         <v>240.1433454771049</v>
@@ -36439,7 +36439,7 @@
         <v>89.63772240239243</v>
       </c>
       <c r="K24" t="n">
-        <v>306.7515102197696</v>
+        <v>232.1494122709661</v>
       </c>
       <c r="L24" t="n">
         <v>358.9439794264659</v>
@@ -36448,7 +36448,7 @@
         <v>438.4230857901371</v>
       </c>
       <c r="N24" t="n">
-        <v>464.581027085978</v>
+        <v>539.1831250347815</v>
       </c>
       <c r="O24" t="n">
         <v>402.556638938372</v>
@@ -36597,13 +36597,13 @@
         <v>182.4158802811663</v>
       </c>
       <c r="K26" t="n">
-        <v>324.645146633947</v>
+        <v>331.6125812459596</v>
       </c>
       <c r="L26" t="n">
-        <v>736.9393422553021</v>
+        <v>857.6867329646391</v>
       </c>
       <c r="M26" t="n">
-        <v>971.1160373207958</v>
+        <v>521.6025038279633</v>
       </c>
       <c r="N26" t="n">
         <v>972.0499145743842</v>
@@ -36612,7 +36612,7 @@
         <v>872.2350916254038</v>
       </c>
       <c r="P26" t="n">
-        <v>384.5788304289183</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q26" t="n">
         <v>240.1433454771049</v>
@@ -36837,7 +36837,7 @@
         <v>324.645146633947</v>
       </c>
       <c r="L29" t="n">
-        <v>736.9393422553021</v>
+        <v>857.6867329646391</v>
       </c>
       <c r="M29" t="n">
         <v>971.1160373207958</v>
@@ -36846,7 +36846,7 @@
         <v>972.0499145743842</v>
       </c>
       <c r="O29" t="n">
-        <v>872.2350916254038</v>
+        <v>751.4877009160666</v>
       </c>
       <c r="P29" t="n">
         <v>384.5788304289183</v>
@@ -37074,7 +37074,7 @@
         <v>324.645146633947</v>
       </c>
       <c r="L32" t="n">
-        <v>736.9393422553021</v>
+        <v>857.6867329646391</v>
       </c>
       <c r="M32" t="n">
         <v>971.1160373207958</v>
@@ -37083,7 +37083,7 @@
         <v>972.0499145743842</v>
       </c>
       <c r="O32" t="n">
-        <v>872.2350916254038</v>
+        <v>751.4877009160666</v>
       </c>
       <c r="P32" t="n">
         <v>384.5788304289183</v>
@@ -37311,7 +37311,7 @@
         <v>324.645146633947</v>
       </c>
       <c r="L35" t="n">
-        <v>857.6867329646391</v>
+        <v>736.9393422553021</v>
       </c>
       <c r="M35" t="n">
         <v>971.1160373207958</v>
@@ -37320,7 +37320,7 @@
         <v>972.0499145743842</v>
       </c>
       <c r="O35" t="n">
-        <v>751.4877009160666</v>
+        <v>872.2350916254038</v>
       </c>
       <c r="P35" t="n">
         <v>384.5788304289183</v>
@@ -37548,7 +37548,7 @@
         <v>324.645146633947</v>
       </c>
       <c r="L38" t="n">
-        <v>736.9393422553021</v>
+        <v>857.6867329646391</v>
       </c>
       <c r="M38" t="n">
         <v>971.1160373207958</v>
@@ -37557,7 +37557,7 @@
         <v>972.0499145743842</v>
       </c>
       <c r="O38" t="n">
-        <v>872.2350916254038</v>
+        <v>751.4877009160666</v>
       </c>
       <c r="P38" t="n">
         <v>384.5788304289183</v>
@@ -37624,7 +37624,7 @@
         <v>89.63772240239243</v>
       </c>
       <c r="K39" t="n">
-        <v>306.7515102197696</v>
+        <v>306.7515102197707</v>
       </c>
       <c r="L39" t="n">
         <v>358.9439794264659</v>
@@ -38019,7 +38019,7 @@
         <v>182.4158802811663</v>
       </c>
       <c r="K44" t="n">
-        <v>648.7905592051118</v>
+        <v>324.645146633947</v>
       </c>
       <c r="L44" t="n">
         <v>857.6867329646391</v>
@@ -38028,10 +38028,10 @@
         <v>971.1160373207958</v>
       </c>
       <c r="N44" t="n">
-        <v>907.9572925566279</v>
+        <v>972.0499145743842</v>
       </c>
       <c r="O44" t="n">
-        <v>491.4349103626585</v>
+        <v>751.4877009160666</v>
       </c>
       <c r="P44" t="n">
         <v>384.5788304289183</v>

--- a/Outputs/1. Budget/Output Files/1250000/Output_7_29.xlsx
+++ b/Outputs/1. Budget/Output Files/1250000/Output_7_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2258032.751446263</v>
+        <v>2256608.206328739</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6239134.533256414</v>
+        <v>6239134.533256417</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>840694.9721069179</v>
+        <v>840694.9721069188</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9892703.125658195</v>
+        <v>9892703.125658192</v>
       </c>
     </row>
     <row r="11">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>163.8950372953901</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>207.2013025968596</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -709,22 +709,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V3" t="n">
-        <v>232.800587149425</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>9.275596830496628</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>263.9962640000452</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>4.707775948794417</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>147.9664617264413</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,28 +1056,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>39.25266187003822</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>55.90301252244922</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>354.9564060845922</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>154.8079596046693</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1293,16 +1293,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>30.60408762095413</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>162.3912409166441</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206841</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1387,10 +1387,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H11" t="n">
-        <v>295.6178616169272</v>
+        <v>295.6178616169258</v>
       </c>
       <c r="I11" t="n">
-        <v>45.37937317040314</v>
+        <v>45.37937317040308</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>111.4352990145559</v>
+        <v>111.4352990145557</v>
       </c>
       <c r="T11" t="n">
         <v>204.3497241367009</v>
@@ -1469,7 +1469,7 @@
         <v>90.10654034855867</v>
       </c>
       <c r="I12" t="n">
-        <v>10.50839692030168</v>
+        <v>10.50839692030166</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>166.0700504016732</v>
       </c>
       <c r="H13" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>97.68290229956057</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>9.047047824922682</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.39802920136653</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1627,7 +1627,7 @@
         <v>295.6178616169272</v>
       </c>
       <c r="I14" t="n">
-        <v>45.37937317040314</v>
+        <v>45.37937317040308</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>111.4352990145557</v>
+        <v>111.4352990145568</v>
       </c>
       <c r="T14" t="n">
-        <v>204.3497241367009</v>
+        <v>204.3497241366999</v>
       </c>
       <c r="U14" t="n">
         <v>251.0030623803221</v>
@@ -1706,7 +1706,7 @@
         <v>90.10654034855867</v>
       </c>
       <c r="I15" t="n">
-        <v>10.50839692030168</v>
+        <v>10.50839692030166</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>50.1269190781215</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>97.68290229956057</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>60.8099109025016</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>219.7379838856521</v>
@@ -1855,16 +1855,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417122</v>
       </c>
       <c r="G17" t="n">
-        <v>411.0203559212046</v>
+        <v>411.0203559212039</v>
       </c>
       <c r="H17" t="n">
         <v>295.6178616169272</v>
       </c>
       <c r="I17" t="n">
-        <v>45.37937317040314</v>
+        <v>45.37937317040311</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>111.4352990145557</v>
       </c>
       <c r="T17" t="n">
-        <v>204.3497241367017</v>
+        <v>204.3497241367009</v>
       </c>
       <c r="U17" t="n">
         <v>251.0030623803221</v>
@@ -1943,7 +1943,7 @@
         <v>90.10654034855867</v>
       </c>
       <c r="I18" t="n">
-        <v>10.50839692030168</v>
+        <v>10.50839692030166</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>106.2643601382278</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>121.1168486511132</v>
       </c>
       <c r="G19" t="n">
         <v>166.0700504016732</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,22 +2052,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2142514133935</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2241,22 +2241,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>130.4482050673217</v>
       </c>
       <c r="T22" t="n">
         <v>219.7379838856521</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>9.959387235766899</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2484,10 +2484,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.0700504016732</v>
@@ -2526,10 +2526,10 @@
         <v>90.92144028388266</v>
       </c>
       <c r="S25" t="n">
-        <v>67.52101647276696</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>168.8359819249116</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2721,16 +2721,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H28" t="n">
-        <v>28.81869974802235</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.7379838856521</v>
+        <v>72.0931080637374</v>
       </c>
       <c r="U28" t="n">
         <v>286.2142514133935</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.0203559212044</v>
+        <v>411.0203559212046</v>
       </c>
       <c r="H29" t="n">
         <v>295.6178616169272</v>
@@ -2952,16 +2952,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>92.65195822211759</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.0700504016732</v>
@@ -2970,7 +2970,7 @@
         <v>145.148367782564</v>
       </c>
       <c r="I31" t="n">
-        <v>97.68290229956055</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T31" t="n">
         <v>219.7379838856521</v>
@@ -3009,16 +3009,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>210.5828288020433</v>
       </c>
     </row>
     <row r="32">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3195,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>97.68290229956055</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>190.5400452173542</v>
+        <v>130.4482050673217</v>
       </c>
       <c r="T34" t="n">
         <v>219.7379838856521</v>
@@ -3246,16 +3246,16 @@
         <v>286.2142514133935</v>
       </c>
       <c r="V34" t="n">
-        <v>24.49432065968393</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>119.740140031905</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>37.51831983141459</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2142514133935</v>
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3523,7 +3523,7 @@
         <v>295.6178616169272</v>
       </c>
       <c r="I38" t="n">
-        <v>45.37937317040308</v>
+        <v>45.37937317040376</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0700504016732</v>
+        <v>77.7068761674024</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I40" t="n">
         <v>97.68290229956055</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>75.66622466102584</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.0203559212046</v>
+        <v>411.0203559212047</v>
       </c>
       <c r="H41" t="n">
         <v>295.6178616169272</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>111.4352990145557</v>
+        <v>111.435299014555</v>
       </c>
       <c r="T41" t="n">
-        <v>204.3497241367009</v>
+        <v>204.3497241367017</v>
       </c>
       <c r="U41" t="n">
         <v>251.0030623803221</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>34.32389483613349</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>205.7094134897031</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.0700504016732</v>
       </c>
       <c r="H46" t="n">
-        <v>145.148367782564</v>
+        <v>81.33330269844397</v>
       </c>
       <c r="I46" t="n">
-        <v>71.55698534223954</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S46" t="n">
         <v>190.5400452173542</v>
@@ -4191,19 +4191,19 @@
         <v>219.7379838856521</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2476.569858826099</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="C2" t="n">
-        <v>2107.607341885688</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>743.8979228366049</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W2" t="n">
-        <v>2642.120401548716</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X2" t="n">
-        <v>2642.120401548716</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y2" t="n">
-        <v>2642.120401548716</v>
+        <v>1154.883827626212</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4445,7 +4445,7 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>108.9687959810045</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C4" t="n">
-        <v>108.9687959810045</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4512,28 +4512,28 @@
         <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124028</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>108.9687959810045</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U4" t="n">
-        <v>108.9687959810045</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V4" t="n">
-        <v>108.9687959810045</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W4" t="n">
-        <v>108.9687959810045</v>
+        <v>432.0491721307175</v>
       </c>
       <c r="X4" t="n">
-        <v>108.9687959810045</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="Y4" t="n">
-        <v>108.9687959810045</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1726.57441852865</v>
+        <v>1327.372931623164</v>
       </c>
       <c r="C5" t="n">
-        <v>1726.57441852865</v>
+        <v>1327.372931623164</v>
       </c>
       <c r="D5" t="n">
-        <v>1368.308719921899</v>
+        <v>1327.372931623164</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>941.58467902492</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>530.5987742353125</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4573,7 +4573,7 @@
         <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W5" t="n">
-        <v>2113.174258592771</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X5" t="n">
-        <v>2113.174258592771</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="Y5" t="n">
-        <v>2113.174258592771</v>
+        <v>1327.372931623164</v>
       </c>
     </row>
     <row r="6">
@@ -4628,16 +4628,16 @@
         <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.8791647482714</v>
+        <v>688.4798308023552</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>688.4798308023552</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>688.4798308023552</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>540.5667372199621</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4749,28 +4749,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>688.4798308023552</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>688.4798308023552</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>688.4798308023552</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>688.4798308023552</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>688.4798308023552</v>
       </c>
       <c r="W7" t="n">
-        <v>671.6612947898188</v>
+        <v>688.4798308023552</v>
       </c>
       <c r="X7" t="n">
-        <v>443.6717438918015</v>
+        <v>688.4798308023552</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.8791647482714</v>
+        <v>688.4798308023552</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1579.049931616194</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="C8" t="n">
-        <v>1210.087414675782</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="D8" t="n">
-        <v>1210.087414675782</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4834,22 +4834,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2267.114058152426</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>1936.051170808855</v>
       </c>
       <c r="W8" t="n">
-        <v>2311.057514205145</v>
+        <v>1583.282515538741</v>
       </c>
       <c r="X8" t="n">
-        <v>1937.591755944065</v>
+        <v>1209.816757277661</v>
       </c>
       <c r="Y8" t="n">
-        <v>1937.591755944065</v>
+        <v>819.6774253018493</v>
       </c>
     </row>
     <row r="9">
@@ -4874,10 +4874,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4892,7 +4892,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.59950625323012</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>529.7758821321493</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>379.6592427198135</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>231.7461491374204</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>84.85620163951003</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>84.85620163951003</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>84.85620163951003</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>84.85620163951003</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4989,25 +4989,25 @@
         <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>484.4236418782189</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>484.4236418782189</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>320.3920853967602</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>320.3920853967602</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>320.3920853967602</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>320.3920853967602</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.59950625323012</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="11">
@@ -5023,16 +5023,16 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D11" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.10555459151</v>
       </c>
       <c r="E11" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993266</v>
       </c>
       <c r="F11" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036585</v>
       </c>
       <c r="G11" t="n">
-        <v>440.1593205155744</v>
+        <v>440.159320515573</v>
       </c>
       <c r="H11" t="n">
         <v>141.5554198924156</v>
@@ -5041,28 +5041,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J11" t="n">
-        <v>276.3093906935953</v>
+        <v>276.3093906935954</v>
       </c>
       <c r="K11" t="n">
-        <v>597.7080858612028</v>
+        <v>597.708085861203</v>
       </c>
       <c r="L11" t="n">
-        <v>1446.817951496195</v>
+        <v>1446.817951496196</v>
       </c>
       <c r="M11" t="n">
-        <v>2408.222828443783</v>
+        <v>2408.222828443784</v>
       </c>
       <c r="N11" t="n">
-        <v>3370.552243872424</v>
+        <v>3251.012327070181</v>
       </c>
       <c r="O11" t="n">
-        <v>4114.525067779331</v>
+        <v>4114.52506777933</v>
       </c>
       <c r="P11" t="n">
-        <v>4495.25810990396</v>
+        <v>4495.258109903959</v>
       </c>
       <c r="Q11" t="n">
-        <v>4733.000021926294</v>
+        <v>4733.000021926293</v>
       </c>
       <c r="R11" t="n">
         <v>4785.883460762037</v>
@@ -5077,13 +5077,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V11" t="n">
-        <v>3882.307355709802</v>
+        <v>3882.307355709801</v>
       </c>
       <c r="W11" t="n">
-        <v>3529.538700439688</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X11" t="n">
-        <v>3156.072942178608</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y11" t="n">
         <v>2765.933610202796</v>
@@ -5120,19 +5120,19 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J12" t="n">
-        <v>184.4590143936092</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K12" t="n">
-        <v>488.1430095111818</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L12" t="n">
-        <v>843.4975491433829</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M12" t="n">
-        <v>1277.536404075619</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N12" t="n">
-        <v>1737.471620890737</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O12" t="n">
         <v>2136.002693439725</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>974.6920759057148</v>
+        <v>729.4079647116495</v>
       </c>
       <c r="C13" t="n">
-        <v>805.7558929778079</v>
+        <v>560.4717817837426</v>
       </c>
       <c r="D13" t="n">
-        <v>655.6392535654721</v>
+        <v>410.3551423714068</v>
       </c>
       <c r="E13" t="n">
-        <v>655.6392535654721</v>
+        <v>410.3551423714068</v>
       </c>
       <c r="F13" t="n">
-        <v>508.7493060675617</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="G13" t="n">
-        <v>341.001780409306</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H13" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I13" t="n">
         <v>95.71766921524075</v>
@@ -5202,16 +5202,16 @@
         <v>137.7436613720288</v>
       </c>
       <c r="K13" t="n">
-        <v>336.6421130738838</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L13" t="n">
-        <v>646.6900875150413</v>
+        <v>646.6900875150416</v>
       </c>
       <c r="M13" t="n">
-        <v>983.9813277239496</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N13" t="n">
-        <v>1318.687152545533</v>
+        <v>1318.687152545534</v>
       </c>
       <c r="O13" t="n">
         <v>1611.825859961355</v>
@@ -5226,25 +5226,25 @@
         <v>1913.078649972671</v>
       </c>
       <c r="S13" t="n">
-        <v>1720.613957833929</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="T13" t="n">
-        <v>1720.613957833929</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="U13" t="n">
-        <v>1720.613957833929</v>
+        <v>1903.940217826284</v>
       </c>
       <c r="V13" t="n">
-        <v>1720.613957833929</v>
+        <v>1649.255729620397</v>
       </c>
       <c r="W13" t="n">
-        <v>1431.196787796968</v>
+        <v>1359.838559583437</v>
       </c>
       <c r="X13" t="n">
-        <v>1203.207236898951</v>
+        <v>1131.849008685419</v>
       </c>
       <c r="Y13" t="n">
-        <v>1156.340540735954</v>
+        <v>911.0564295418892</v>
       </c>
     </row>
     <row r="14">
@@ -5260,7 +5260,7 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D14" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E14" t="n">
         <v>1266.317301993267</v>
@@ -5269,7 +5269,7 @@
         <v>855.3313972036599</v>
       </c>
       <c r="G14" t="n">
-        <v>440.1593205155744</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H14" t="n">
         <v>141.5554198924156</v>
@@ -5278,28 +5278,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J14" t="n">
-        <v>276.3093906935953</v>
+        <v>443.7150397139484</v>
       </c>
       <c r="K14" t="n">
-        <v>918.6120443066559</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L14" t="n">
-        <v>1767.721909941648</v>
+        <v>1543.411851794608</v>
       </c>
       <c r="M14" t="n">
-        <v>2284.108388731332</v>
+        <v>2504.816728742196</v>
       </c>
       <c r="N14" t="n">
-        <v>2813.464348992108</v>
+        <v>3034.172689002972</v>
       </c>
       <c r="O14" t="n">
-        <v>3676.977089701258</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P14" t="n">
-        <v>4376.290852915655</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q14" t="n">
-        <v>4733.000021926294</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R14" t="n">
         <v>4785.883460762037</v>
@@ -5314,13 +5314,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V14" t="n">
-        <v>3882.307355709801</v>
+        <v>3882.307355709802</v>
       </c>
       <c r="W14" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439688</v>
       </c>
       <c r="X14" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178608</v>
       </c>
       <c r="Y14" t="n">
         <v>2765.933610202796</v>
@@ -5357,22 +5357,22 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J15" t="n">
-        <v>184.4590143936092</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K15" t="n">
-        <v>414.2869325418657</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L15" t="n">
-        <v>769.6414721740668</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M15" t="n">
-        <v>1203.680327106302</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N15" t="n">
-        <v>1663.615543921421</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O15" t="n">
-        <v>2062.146616470409</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P15" t="n">
         <v>2436.525948037006</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>194.3872674976251</v>
+        <v>579.2913252993137</v>
       </c>
       <c r="C16" t="n">
-        <v>194.3872674976251</v>
+        <v>410.3551423714068</v>
       </c>
       <c r="D16" t="n">
-        <v>194.3872674976251</v>
+        <v>410.3551423714068</v>
       </c>
       <c r="E16" t="n">
-        <v>194.3872674976251</v>
+        <v>410.3551423714068</v>
       </c>
       <c r="F16" t="n">
-        <v>194.3872674976251</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="G16" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H16" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I16" t="n">
         <v>95.71766921524075</v>
@@ -5439,16 +5439,16 @@
         <v>137.7436613720288</v>
       </c>
       <c r="K16" t="n">
-        <v>336.6421130738838</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L16" t="n">
-        <v>646.6900875150413</v>
+        <v>646.6900875150416</v>
       </c>
       <c r="M16" t="n">
-        <v>983.9813277239496</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N16" t="n">
-        <v>1318.687152545533</v>
+        <v>1318.687152545534</v>
       </c>
       <c r="O16" t="n">
         <v>1611.825859961355</v>
@@ -5460,28 +5460,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R16" t="n">
-        <v>1851.654497545901</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S16" t="n">
-        <v>1659.18980540716</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="T16" t="n">
-        <v>1437.232245926703</v>
+        <v>1691.121090492214</v>
       </c>
       <c r="U16" t="n">
-        <v>1148.12694146873</v>
+        <v>1402.015786034241</v>
       </c>
       <c r="V16" t="n">
-        <v>893.4424532628427</v>
+        <v>1147.331297828354</v>
       </c>
       <c r="W16" t="n">
-        <v>604.0252832258822</v>
+        <v>857.9141277913932</v>
       </c>
       <c r="X16" t="n">
-        <v>376.0357323278648</v>
+        <v>629.9245768933758</v>
       </c>
       <c r="Y16" t="n">
-        <v>376.0357323278648</v>
+        <v>629.9245768933758</v>
       </c>
     </row>
     <row r="17">
@@ -5500,10 +5500,10 @@
         <v>1652.105554591512</v>
       </c>
       <c r="E17" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F17" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036592</v>
       </c>
       <c r="G17" t="n">
         <v>440.1593205155744</v>
@@ -5515,28 +5515,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J17" t="n">
-        <v>276.3093906935953</v>
+        <v>443.7150397139484</v>
       </c>
       <c r="K17" t="n">
-        <v>597.7080858612028</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L17" t="n">
-        <v>1446.817951496195</v>
+        <v>1935.127558962002</v>
       </c>
       <c r="M17" t="n">
-        <v>2408.222828443783</v>
+        <v>2451.514037751685</v>
       </c>
       <c r="N17" t="n">
-        <v>3370.552243872424</v>
+        <v>2980.869998012462</v>
       </c>
       <c r="O17" t="n">
-        <v>4114.525067779331</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P17" t="n">
-        <v>4495.25810990396</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q17" t="n">
-        <v>4733.000021926294</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R17" t="n">
         <v>4785.883460762037</v>
@@ -5545,10 +5545,10 @@
         <v>4673.322552666526</v>
       </c>
       <c r="T17" t="n">
-        <v>4466.908689902181</v>
+        <v>4466.908689902182</v>
       </c>
       <c r="U17" t="n">
-        <v>4213.370243053371</v>
+        <v>4213.370243053372</v>
       </c>
       <c r="V17" t="n">
         <v>3882.307355709801</v>
@@ -5594,25 +5594,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J18" t="n">
-        <v>184.4590143936092</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K18" t="n">
-        <v>414.2869325418657</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L18" t="n">
-        <v>769.6414721740668</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M18" t="n">
-        <v>1203.680327106302</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N18" t="n">
-        <v>1663.615543921421</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O18" t="n">
-        <v>2062.146616470409</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P18" t="n">
-        <v>2362.66987106769</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q18" t="n">
         <v>2587.498588679581</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3390.497690674135</v>
+        <v>631.0895572303024</v>
       </c>
       <c r="C19" t="n">
-        <v>3390.497690674135</v>
+        <v>631.0895572303024</v>
       </c>
       <c r="D19" t="n">
-        <v>3283.159953160774</v>
+        <v>631.0895572303024</v>
       </c>
       <c r="E19" t="n">
-        <v>3283.159953160774</v>
+        <v>631.0895572303024</v>
       </c>
       <c r="F19" t="n">
-        <v>3136.270005662864</v>
+        <v>508.7493060675617</v>
       </c>
       <c r="G19" t="n">
-        <v>2968.522480004608</v>
+        <v>341.001780409306</v>
       </c>
       <c r="H19" t="n">
-        <v>2968.522480004608</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="I19" t="n">
-        <v>2968.522480004608</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J19" t="n">
-        <v>3010.548472161396</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K19" t="n">
-        <v>3209.446923863251</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L19" t="n">
-        <v>3519.494898304409</v>
+        <v>646.6900875150416</v>
       </c>
       <c r="M19" t="n">
-        <v>3856.786138513317</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N19" t="n">
-        <v>4191.491963334901</v>
+        <v>1318.687152545534</v>
       </c>
       <c r="O19" t="n">
-        <v>4484.630670750722</v>
+        <v>1611.825859961355</v>
       </c>
       <c r="P19" t="n">
-        <v>4711.940793992646</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q19" t="n">
-        <v>4785.883460762037</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="R19" t="n">
-        <v>4785.883460762037</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S19" t="n">
-        <v>4593.418768623295</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="T19" t="n">
-        <v>4371.461209142839</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="U19" t="n">
-        <v>4082.355904684866</v>
+        <v>1623.973345514697</v>
       </c>
       <c r="V19" t="n">
-        <v>4082.355904684866</v>
+        <v>1369.288857308811</v>
       </c>
       <c r="W19" t="n">
-        <v>3792.938734647905</v>
+        <v>1079.87168727185</v>
       </c>
       <c r="X19" t="n">
-        <v>3792.938734647905</v>
+        <v>851.8821363738325</v>
       </c>
       <c r="Y19" t="n">
-        <v>3572.146155504375</v>
+        <v>631.0895572303024</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2379.333770138673</v>
+        <v>2379.333770138674</v>
       </c>
       <c r="C20" t="n">
-        <v>2010.371253198261</v>
+        <v>2010.371253198262</v>
       </c>
       <c r="D20" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E20" t="n">
         <v>1266.317301993267</v>
       </c>
       <c r="F20" t="n">
-        <v>855.3313972036598</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G20" t="n">
         <v>440.1593205155743</v>
@@ -5752,28 +5752,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J20" t="n">
-        <v>276.3093906935954</v>
+        <v>443.7150397139484</v>
       </c>
       <c r="K20" t="n">
-        <v>597.708085861203</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L20" t="n">
-        <v>1446.817951496196</v>
+        <v>1930.018791592162</v>
       </c>
       <c r="M20" t="n">
-        <v>2408.222828443784</v>
+        <v>2446.405270381846</v>
       </c>
       <c r="N20" t="n">
-        <v>3370.552243872424</v>
+        <v>2975.761230642622</v>
       </c>
       <c r="O20" t="n">
-        <v>4114.52506777933</v>
+        <v>3839.273971351772</v>
       </c>
       <c r="P20" t="n">
-        <v>4495.258109903959</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q20" t="n">
-        <v>4733.000021926293</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R20" t="n">
         <v>4785.883460762037</v>
@@ -5785,19 +5785,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U20" t="n">
-        <v>4213.370243053371</v>
+        <v>4213.370243053372</v>
       </c>
       <c r="V20" t="n">
-        <v>3882.307355709801</v>
+        <v>3882.307355709802</v>
       </c>
       <c r="W20" t="n">
-        <v>3529.538700439686</v>
+        <v>3529.538700439688</v>
       </c>
       <c r="X20" t="n">
-        <v>3156.072942178606</v>
+        <v>3156.072942178608</v>
       </c>
       <c r="Y20" t="n">
-        <v>2765.933610202795</v>
+        <v>2765.933610202796</v>
       </c>
     </row>
     <row r="21">
@@ -5831,7 +5831,7 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J21" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K21" t="n">
         <v>488.1430095111811</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3896.740381995089</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C22" t="n">
-        <v>3727.804199067182</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D22" t="n">
-        <v>3577.687559654847</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E22" t="n">
-        <v>3429.774466072453</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F22" t="n">
-        <v>3282.884518574543</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G22" t="n">
-        <v>3115.136992916287</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H22" t="n">
-        <v>2968.522480004607</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I22" t="n">
-        <v>2968.522480004607</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J22" t="n">
-        <v>3010.548472161395</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K22" t="n">
-        <v>3209.44692386325</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L22" t="n">
-        <v>3519.494898304408</v>
+        <v>646.6900875150416</v>
       </c>
       <c r="M22" t="n">
-        <v>3856.786138513316</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N22" t="n">
-        <v>4191.4919633349</v>
+        <v>1318.687152545534</v>
       </c>
       <c r="O22" t="n">
-        <v>4484.630670750721</v>
+        <v>1611.825859961355</v>
       </c>
       <c r="P22" t="n">
-        <v>4711.940793992646</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q22" t="n">
-        <v>4785.883460762037</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="R22" t="n">
-        <v>4785.883460762037</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S22" t="n">
-        <v>4785.883460762037</v>
+        <v>1781.312786268305</v>
       </c>
       <c r="T22" t="n">
-        <v>4563.925901281581</v>
+        <v>1559.355226787849</v>
       </c>
       <c r="U22" t="n">
-        <v>4563.925901281581</v>
+        <v>1270.249922329876</v>
       </c>
       <c r="V22" t="n">
-        <v>4309.241413075694</v>
+        <v>1015.565434123989</v>
       </c>
       <c r="W22" t="n">
-        <v>4309.241413075694</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X22" t="n">
-        <v>4299.181425968859</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y22" t="n">
-        <v>4078.388846825329</v>
+        <v>277.3661340454805</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2379.333770138674</v>
+        <v>2379.333770138673</v>
       </c>
       <c r="C23" t="n">
-        <v>2010.371253198262</v>
+        <v>2010.371253198261</v>
       </c>
       <c r="D23" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E23" t="n">
         <v>1266.317301993267</v>
       </c>
       <c r="F23" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036598</v>
       </c>
       <c r="G23" t="n">
         <v>440.1593205155743</v>
@@ -5989,28 +5989,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J23" t="n">
-        <v>276.3093906935954</v>
+        <v>443.7150397139484</v>
       </c>
       <c r="K23" t="n">
-        <v>604.6058461270954</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L23" t="n">
-        <v>1453.715711762088</v>
+        <v>1935.127558962002</v>
       </c>
       <c r="M23" t="n">
-        <v>1970.102190551772</v>
+        <v>2451.514037751685</v>
       </c>
       <c r="N23" t="n">
-        <v>2932.431605980412</v>
+        <v>2980.869998012462</v>
       </c>
       <c r="O23" t="n">
-        <v>3795.944346689562</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P23" t="n">
-        <v>4495.258109903959</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q23" t="n">
-        <v>4733.000021926293</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R23" t="n">
         <v>4785.883460762037</v>
@@ -6022,19 +6022,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U23" t="n">
-        <v>4213.370243053372</v>
+        <v>4213.370243053371</v>
       </c>
       <c r="V23" t="n">
-        <v>3882.307355709802</v>
+        <v>3882.307355709801</v>
       </c>
       <c r="W23" t="n">
-        <v>3529.538700439688</v>
+        <v>3529.538700439686</v>
       </c>
       <c r="X23" t="n">
-        <v>3156.072942178608</v>
+        <v>3156.072942178606</v>
       </c>
       <c r="Y23" t="n">
-        <v>2765.933610202796</v>
+        <v>2765.933610202795</v>
       </c>
     </row>
     <row r="24">
@@ -6068,16 +6068,16 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J24" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K24" t="n">
-        <v>414.2869325418658</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L24" t="n">
-        <v>769.6414721740671</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M24" t="n">
-        <v>1203.680327106303</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N24" t="n">
         <v>1737.471620890736</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3995.409980277474</v>
+        <v>827.8021284078044</v>
       </c>
       <c r="C25" t="n">
-        <v>3826.473797349567</v>
+        <v>658.8659454798975</v>
       </c>
       <c r="D25" t="n">
-        <v>3676.357157937231</v>
+        <v>508.7493060675617</v>
       </c>
       <c r="E25" t="n">
-        <v>3528.444064354838</v>
+        <v>508.7493060675617</v>
       </c>
       <c r="F25" t="n">
-        <v>3381.554116856928</v>
+        <v>508.7493060675617</v>
       </c>
       <c r="G25" t="n">
-        <v>3213.806591198672</v>
+        <v>341.001780409306</v>
       </c>
       <c r="H25" t="n">
-        <v>3067.192078286991</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="I25" t="n">
-        <v>2968.522480004607</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J25" t="n">
-        <v>3010.548472161395</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K25" t="n">
-        <v>3209.44692386325</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L25" t="n">
-        <v>3519.494898304408</v>
+        <v>646.6900875150416</v>
       </c>
       <c r="M25" t="n">
-        <v>3856.786138513316</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N25" t="n">
-        <v>4191.4919633349</v>
+        <v>1318.687152545534</v>
       </c>
       <c r="O25" t="n">
-        <v>4484.630670750721</v>
+        <v>1611.825859961355</v>
       </c>
       <c r="P25" t="n">
-        <v>4711.940793992646</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q25" t="n">
-        <v>4785.883460762037</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="R25" t="n">
-        <v>4694.043622091449</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="S25" t="n">
-        <v>4625.84057514926</v>
+        <v>1628.774119163341</v>
       </c>
       <c r="T25" t="n">
-        <v>4625.84057514926</v>
+        <v>1458.232723279591</v>
       </c>
       <c r="U25" t="n">
-        <v>4625.84057514926</v>
+        <v>1458.232723279591</v>
       </c>
       <c r="V25" t="n">
-        <v>4625.84057514926</v>
+        <v>1458.232723279591</v>
       </c>
       <c r="W25" t="n">
-        <v>4625.84057514926</v>
+        <v>1458.232723279591</v>
       </c>
       <c r="X25" t="n">
-        <v>4397.851024251243</v>
+        <v>1230.243172381574</v>
       </c>
       <c r="Y25" t="n">
-        <v>4177.058445107713</v>
+        <v>1009.450593238044</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J26" t="n">
-        <v>276.3093906935954</v>
+        <v>443.7150397139484</v>
       </c>
       <c r="K26" t="n">
-        <v>604.6058461270954</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L26" t="n">
-        <v>1453.715711762088</v>
+        <v>1611.438070502395</v>
       </c>
       <c r="M26" t="n">
-        <v>1970.102190551772</v>
+        <v>2127.824549292078</v>
       </c>
       <c r="N26" t="n">
-        <v>2932.431605980412</v>
+        <v>2657.180509552854</v>
       </c>
       <c r="O26" t="n">
-        <v>3795.944346689562</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P26" t="n">
-        <v>4495.258109903959</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q26" t="n">
-        <v>4733.000021926293</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R26" t="n">
         <v>4785.883460762037</v>
@@ -6305,7 +6305,7 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J27" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K27" t="n">
         <v>488.1430095111811</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>124.8274669405158</v>
+        <v>558.2682359537999</v>
       </c>
       <c r="C28" t="n">
-        <v>124.8274669405158</v>
+        <v>558.2682359537999</v>
       </c>
       <c r="D28" t="n">
-        <v>124.8274669405158</v>
+        <v>558.2682359537999</v>
       </c>
       <c r="E28" t="n">
-        <v>124.8274669405158</v>
+        <v>410.3551423714068</v>
       </c>
       <c r="F28" t="n">
-        <v>124.8274669405158</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="G28" t="n">
-        <v>124.8274669405158</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H28" t="n">
         <v>95.71766921524075</v>
@@ -6408,28 +6408,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R28" t="n">
-        <v>1821.238811302082</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S28" t="n">
-        <v>1628.774119163341</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="T28" t="n">
-        <v>1406.816559682884</v>
+        <v>1840.257328696168</v>
       </c>
       <c r="U28" t="n">
-        <v>1117.711255224911</v>
+        <v>1551.152024238195</v>
       </c>
       <c r="V28" t="n">
-        <v>863.0267670190239</v>
+        <v>1296.467536032308</v>
       </c>
       <c r="W28" t="n">
-        <v>573.6095969820633</v>
+        <v>1007.050365995347</v>
       </c>
       <c r="X28" t="n">
-        <v>345.620046084046</v>
+        <v>779.0608150973301</v>
       </c>
       <c r="Y28" t="n">
-        <v>124.8274669405158</v>
+        <v>558.2682359537999</v>
       </c>
     </row>
     <row r="29">
@@ -6445,16 +6445,16 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D29" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E29" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F29" t="n">
-        <v>855.3313972036597</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G29" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155741</v>
       </c>
       <c r="H29" t="n">
         <v>141.5554198924156</v>
@@ -6472,19 +6472,19 @@
         <v>1446.817951496196</v>
       </c>
       <c r="M29" t="n">
-        <v>2408.222828443784</v>
+        <v>1963.204430285879</v>
       </c>
       <c r="N29" t="n">
-        <v>3370.552243872424</v>
+        <v>2867.37235030616</v>
       </c>
       <c r="O29" t="n">
-        <v>4114.52506777933</v>
+        <v>3730.88509101531</v>
       </c>
       <c r="P29" t="n">
-        <v>4495.258109903959</v>
+        <v>4430.198854229707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4733.000021926293</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R29" t="n">
         <v>4785.883460762037</v>
@@ -6542,7 +6542,7 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J30" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K30" t="n">
         <v>488.1430095111811</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>771.2733255834662</v>
+        <v>560.1963471975131</v>
       </c>
       <c r="C31" t="n">
-        <v>602.3371426555593</v>
+        <v>560.1963471975131</v>
       </c>
       <c r="D31" t="n">
-        <v>602.3371426555593</v>
+        <v>410.0797077851773</v>
       </c>
       <c r="E31" t="n">
-        <v>602.3371426555593</v>
+        <v>410.0797077851773</v>
       </c>
       <c r="F31" t="n">
-        <v>508.7493060675617</v>
+        <v>410.0797077851773</v>
       </c>
       <c r="G31" t="n">
-        <v>341.001780409306</v>
+        <v>242.3321821269216</v>
       </c>
       <c r="H31" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I31" t="n">
         <v>95.71766921524075</v>
@@ -6648,25 +6648,25 @@
         <v>1913.078649972671</v>
       </c>
       <c r="S31" t="n">
-        <v>1913.078649972671</v>
+        <v>1720.613957833929</v>
       </c>
       <c r="T31" t="n">
-        <v>1691.121090492214</v>
+        <v>1498.656398353472</v>
       </c>
       <c r="U31" t="n">
-        <v>1691.121090492214</v>
+        <v>1498.656398353472</v>
       </c>
       <c r="V31" t="n">
-        <v>1691.121090492214</v>
+        <v>1243.971910147586</v>
       </c>
       <c r="W31" t="n">
-        <v>1401.703920455253</v>
+        <v>954.5547401106248</v>
       </c>
       <c r="X31" t="n">
-        <v>1173.714369557236</v>
+        <v>954.5547401106248</v>
       </c>
       <c r="Y31" t="n">
-        <v>952.9217904137059</v>
+        <v>741.8448120277528</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2379.333770138673</v>
+        <v>2379.333770138674</v>
       </c>
       <c r="C32" t="n">
-        <v>2010.371253198261</v>
+        <v>2010.371253198262</v>
       </c>
       <c r="D32" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E32" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F32" t="n">
-        <v>855.3313972036598</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G32" t="n">
         <v>440.1593205155743</v>
@@ -6703,25 +6703,25 @@
         <v>276.3093906935954</v>
       </c>
       <c r="K32" t="n">
-        <v>597.708085861203</v>
+        <v>674.8131333966969</v>
       </c>
       <c r="L32" t="n">
-        <v>1446.817951496196</v>
+        <v>1110.438396626744</v>
       </c>
       <c r="M32" t="n">
-        <v>2408.222828443784</v>
+        <v>2071.843273574332</v>
       </c>
       <c r="N32" t="n">
-        <v>3370.552243872424</v>
+        <v>3034.172689002972</v>
       </c>
       <c r="O32" t="n">
-        <v>4114.52506777933</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P32" t="n">
-        <v>4495.258109903959</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q32" t="n">
-        <v>4733.000021926293</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R32" t="n">
         <v>4785.883460762037</v>
@@ -6733,19 +6733,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U32" t="n">
-        <v>4213.370243053371</v>
+        <v>4213.370243053372</v>
       </c>
       <c r="V32" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W32" t="n">
-        <v>3529.538700439686</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X32" t="n">
-        <v>3156.072942178606</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y32" t="n">
-        <v>2765.933610202795</v>
+        <v>2765.933610202796</v>
       </c>
     </row>
     <row r="33">
@@ -6779,7 +6779,7 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J33" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K33" t="n">
         <v>488.1430095111811</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>803.5523471478652</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C34" t="n">
-        <v>803.5523471478652</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D34" t="n">
-        <v>803.5523471478652</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E34" t="n">
-        <v>655.6392535654721</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F34" t="n">
-        <v>508.7493060675617</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G34" t="n">
-        <v>341.001780409306</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H34" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I34" t="n">
         <v>95.71766921524075</v>
@@ -6882,28 +6882,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R34" t="n">
-        <v>1821.238811302082</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S34" t="n">
-        <v>1628.774119163341</v>
+        <v>1781.312786268305</v>
       </c>
       <c r="T34" t="n">
-        <v>1406.816559682884</v>
+        <v>1559.355226787849</v>
       </c>
       <c r="U34" t="n">
-        <v>1117.711255224911</v>
+        <v>1270.249922329876</v>
       </c>
       <c r="V34" t="n">
-        <v>1092.969517184826</v>
+        <v>1015.565434123989</v>
       </c>
       <c r="W34" t="n">
-        <v>803.5523471478652</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X34" t="n">
-        <v>803.5523471478652</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y34" t="n">
-        <v>803.5523471478652</v>
+        <v>277.3661340454805</v>
       </c>
     </row>
     <row r="35">
@@ -6916,70 +6916,70 @@
         <v>2379.333770138674</v>
       </c>
       <c r="C35" t="n">
-        <v>2010.371253198262</v>
+        <v>2010.371253198263</v>
       </c>
       <c r="D35" t="n">
         <v>1652.105554591512</v>
       </c>
       <c r="E35" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F35" t="n">
         <v>855.3313972036599</v>
       </c>
       <c r="G35" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155744</v>
       </c>
       <c r="H35" t="n">
         <v>141.5554198924156</v>
       </c>
       <c r="I35" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524078</v>
       </c>
       <c r="J35" t="n">
-        <v>276.3093906935954</v>
+        <v>443.7150397139485</v>
       </c>
       <c r="K35" t="n">
-        <v>597.708085861203</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L35" t="n">
-        <v>1327.278034693952</v>
+        <v>1521.642956557056</v>
       </c>
       <c r="M35" t="n">
-        <v>2288.68291164154</v>
+        <v>2038.02943534674</v>
       </c>
       <c r="N35" t="n">
-        <v>3251.012327070181</v>
+        <v>2657.180509552855</v>
       </c>
       <c r="O35" t="n">
-        <v>4114.52506777933</v>
+        <v>3520.693250262005</v>
       </c>
       <c r="P35" t="n">
-        <v>4495.258109903959</v>
+        <v>4220.007013476402</v>
       </c>
       <c r="Q35" t="n">
-        <v>4733.000021926293</v>
+        <v>4667.940766252042</v>
       </c>
       <c r="R35" t="n">
-        <v>4785.883460762037</v>
+        <v>4785.883460762038</v>
       </c>
       <c r="S35" t="n">
-        <v>4673.322552666526</v>
+        <v>4673.322552666527</v>
       </c>
       <c r="T35" t="n">
-        <v>4466.908689902182</v>
+        <v>4466.908689902183</v>
       </c>
       <c r="U35" t="n">
-        <v>4213.370243053372</v>
+        <v>4213.370243053373</v>
       </c>
       <c r="V35" t="n">
-        <v>3882.307355709801</v>
+        <v>3882.307355709802</v>
       </c>
       <c r="W35" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439688</v>
       </c>
       <c r="X35" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178608</v>
       </c>
       <c r="Y35" t="n">
         <v>2765.933610202796</v>
@@ -7013,10 +7013,10 @@
         <v>106.3322115589798</v>
       </c>
       <c r="I36" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524078</v>
       </c>
       <c r="J36" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K36" t="n">
         <v>488.1430095111811</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>95.71766921524075</v>
+        <v>449.4410924000626</v>
       </c>
       <c r="C37" t="n">
-        <v>95.71766921524075</v>
+        <v>280.5049094721558</v>
       </c>
       <c r="D37" t="n">
-        <v>95.71766921524075</v>
+        <v>280.5049094721558</v>
       </c>
       <c r="E37" t="n">
-        <v>95.71766921524075</v>
+        <v>242.6076167131511</v>
       </c>
       <c r="F37" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524078</v>
       </c>
       <c r="G37" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524078</v>
       </c>
       <c r="H37" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524078</v>
       </c>
       <c r="I37" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524078</v>
       </c>
       <c r="J37" t="n">
-        <v>137.7436613720288</v>
+        <v>137.7436613720289</v>
       </c>
       <c r="K37" t="n">
         <v>336.6421130738839</v>
@@ -7122,25 +7122,25 @@
         <v>1913.078649972671</v>
       </c>
       <c r="S37" t="n">
-        <v>1720.613957833929</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.656398353472</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="U37" t="n">
-        <v>1209.551093895499</v>
+        <v>1623.973345514697</v>
       </c>
       <c r="V37" t="n">
-        <v>954.8666056896124</v>
+        <v>1369.288857308811</v>
       </c>
       <c r="W37" t="n">
-        <v>665.4494356526518</v>
+        <v>1079.87168727185</v>
       </c>
       <c r="X37" t="n">
-        <v>437.4598847546345</v>
+        <v>851.8821363738325</v>
       </c>
       <c r="Y37" t="n">
-        <v>216.6673056111044</v>
+        <v>631.0895572303024</v>
       </c>
     </row>
     <row r="38">
@@ -7153,25 +7153,25 @@
         <v>2379.333770138674</v>
       </c>
       <c r="C38" t="n">
-        <v>2010.371253198262</v>
+        <v>2010.371253198263</v>
       </c>
       <c r="D38" t="n">
         <v>1652.105554591512</v>
       </c>
       <c r="E38" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F38" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036606</v>
       </c>
       <c r="G38" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155751</v>
       </c>
       <c r="H38" t="n">
-        <v>141.5554198924156</v>
+        <v>141.5554198924163</v>
       </c>
       <c r="I38" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524078</v>
       </c>
       <c r="J38" t="n">
         <v>276.3093906935954</v>
@@ -7189,34 +7189,34 @@
         <v>3370.552243872424</v>
       </c>
       <c r="O38" t="n">
-        <v>4114.52506777933</v>
+        <v>4114.525067779331</v>
       </c>
       <c r="P38" t="n">
-        <v>4495.258109903959</v>
+        <v>4495.25810990396</v>
       </c>
       <c r="Q38" t="n">
-        <v>4733.000021926293</v>
+        <v>4733.000021926294</v>
       </c>
       <c r="R38" t="n">
-        <v>4785.883460762037</v>
+        <v>4785.883460762038</v>
       </c>
       <c r="S38" t="n">
-        <v>4673.322552666526</v>
+        <v>4673.322552666527</v>
       </c>
       <c r="T38" t="n">
-        <v>4466.908689902182</v>
+        <v>4466.908689902183</v>
       </c>
       <c r="U38" t="n">
-        <v>4213.370243053372</v>
+        <v>4213.370243053373</v>
       </c>
       <c r="V38" t="n">
-        <v>3882.307355709801</v>
+        <v>3882.307355709802</v>
       </c>
       <c r="W38" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439688</v>
       </c>
       <c r="X38" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178608</v>
       </c>
       <c r="Y38" t="n">
         <v>2765.933610202796</v>
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3161.309648047117</v>
+        <v>962.9247759646606</v>
       </c>
       <c r="C39" t="n">
-        <v>2986.85661876599</v>
+        <v>788.4717466835336</v>
       </c>
       <c r="D39" t="n">
-        <v>2837.922209104739</v>
+        <v>639.5373370222824</v>
       </c>
       <c r="E39" t="n">
-        <v>2678.684754099283</v>
+        <v>480.2998820168269</v>
       </c>
       <c r="F39" t="n">
-        <v>2532.150196126168</v>
+        <v>333.7653240437119</v>
       </c>
       <c r="G39" t="n">
-        <v>2395.733791064222</v>
+        <v>197.3489189817664</v>
       </c>
       <c r="H39" t="n">
-        <v>2304.717083641436</v>
+        <v>106.3322115589798</v>
       </c>
       <c r="I39" t="n">
-        <v>2294.102541297696</v>
+        <v>95.71766921524078</v>
       </c>
       <c r="J39" t="n">
-        <v>2382.843886476065</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K39" t="n">
-        <v>2686.527881593638</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L39" t="n">
-        <v>3041.882421225839</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M39" t="n">
-        <v>3475.921276158075</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N39" t="n">
-        <v>3935.856492973193</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O39" t="n">
-        <v>4334.387565522181</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P39" t="n">
-        <v>4634.910820119462</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q39" t="n">
-        <v>4785.883460762037</v>
+        <v>2587.498588679581</v>
       </c>
       <c r="R39" t="n">
-        <v>4785.883460762037</v>
+        <v>2587.498588679581</v>
       </c>
       <c r="S39" t="n">
-        <v>4655.455459218338</v>
+        <v>2457.070587135881</v>
       </c>
       <c r="T39" t="n">
-        <v>4462.597602764158</v>
+        <v>2264.212730681702</v>
       </c>
       <c r="U39" t="n">
-        <v>4234.526248997616</v>
+        <v>2036.14137691516</v>
       </c>
       <c r="V39" t="n">
-        <v>3999.374140765873</v>
+        <v>1800.989268683417</v>
       </c>
       <c r="W39" t="n">
-        <v>3745.136784037672</v>
+        <v>1546.751911955215</v>
       </c>
       <c r="X39" t="n">
-        <v>3537.285283832139</v>
+        <v>1338.900411749682</v>
       </c>
       <c r="Y39" t="n">
-        <v>3329.524985067185</v>
+        <v>1131.140112984729</v>
       </c>
     </row>
     <row r="40">
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>531.0709760837877</v>
+        <v>738.5463968580359</v>
       </c>
       <c r="C40" t="n">
-        <v>362.1347931558809</v>
+        <v>569.610213930129</v>
       </c>
       <c r="D40" t="n">
-        <v>362.1347931558809</v>
+        <v>419.4935745177933</v>
       </c>
       <c r="E40" t="n">
-        <v>362.1347931558809</v>
+        <v>419.4935745177933</v>
       </c>
       <c r="F40" t="n">
-        <v>362.1347931558809</v>
+        <v>419.4935745177933</v>
       </c>
       <c r="G40" t="n">
-        <v>194.3872674976251</v>
+        <v>341.001780409306</v>
       </c>
       <c r="H40" t="n">
-        <v>194.3872674976251</v>
+        <v>194.3872674976252</v>
       </c>
       <c r="I40" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524078</v>
       </c>
       <c r="J40" t="n">
-        <v>137.7436613720288</v>
+        <v>137.7436613720289</v>
       </c>
       <c r="K40" t="n">
         <v>336.6421130738839</v>
@@ -7356,28 +7356,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R40" t="n">
-        <v>1821.238811302082</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S40" t="n">
-        <v>1628.774119163341</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="T40" t="n">
-        <v>1406.816559682884</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="U40" t="n">
-        <v>1117.711255224911</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="V40" t="n">
-        <v>1041.280725264279</v>
+        <v>1658.394161766784</v>
       </c>
       <c r="W40" t="n">
-        <v>751.8635552273179</v>
+        <v>1368.976991729823</v>
       </c>
       <c r="X40" t="n">
-        <v>751.8635552273179</v>
+        <v>1140.987440831806</v>
       </c>
       <c r="Y40" t="n">
-        <v>531.0709760837877</v>
+        <v>920.1948616882756</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2379.333770138674</v>
       </c>
       <c r="C41" t="n">
-        <v>2010.371253198262</v>
+        <v>2010.371253198263</v>
       </c>
       <c r="D41" t="n">
         <v>1652.105554591512</v>
@@ -7399,61 +7399,61 @@
         <v>1266.317301993268</v>
       </c>
       <c r="F41" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036603</v>
       </c>
       <c r="G41" t="n">
-        <v>440.1593205155741</v>
+        <v>440.1593205155744</v>
       </c>
       <c r="H41" t="n">
         <v>141.5554198924156</v>
       </c>
       <c r="I41" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524078</v>
       </c>
       <c r="J41" t="n">
-        <v>276.3093906935954</v>
+        <v>443.7150397139485</v>
       </c>
       <c r="K41" t="n">
-        <v>597.708085861203</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L41" t="n">
-        <v>1446.817951496196</v>
+        <v>1611.438070502395</v>
       </c>
       <c r="M41" t="n">
-        <v>2408.222828443784</v>
+        <v>2127.824549292079</v>
       </c>
       <c r="N41" t="n">
-        <v>3370.552243872424</v>
+        <v>2657.180509552855</v>
       </c>
       <c r="O41" t="n">
-        <v>4114.52506777933</v>
+        <v>3520.693250262005</v>
       </c>
       <c r="P41" t="n">
-        <v>4495.258109903959</v>
+        <v>4220.007013476402</v>
       </c>
       <c r="Q41" t="n">
-        <v>4733.000021926293</v>
+        <v>4667.940766252042</v>
       </c>
       <c r="R41" t="n">
-        <v>4785.883460762037</v>
+        <v>4785.883460762038</v>
       </c>
       <c r="S41" t="n">
-        <v>4673.322552666526</v>
+        <v>4673.322552666528</v>
       </c>
       <c r="T41" t="n">
-        <v>4466.908689902182</v>
+        <v>4466.908689902183</v>
       </c>
       <c r="U41" t="n">
-        <v>4213.370243053372</v>
+        <v>4213.370243053373</v>
       </c>
       <c r="V41" t="n">
-        <v>3882.307355709801</v>
+        <v>3882.307355709802</v>
       </c>
       <c r="W41" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439688</v>
       </c>
       <c r="X41" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178608</v>
       </c>
       <c r="Y41" t="n">
         <v>2765.933610202796</v>
@@ -7487,10 +7487,10 @@
         <v>106.3322115589798</v>
       </c>
       <c r="I42" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524078</v>
       </c>
       <c r="J42" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K42" t="n">
         <v>488.1430095111811</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>449.4410924000626</v>
+        <v>531.0709760837879</v>
       </c>
       <c r="C43" t="n">
-        <v>280.5049094721558</v>
+        <v>362.1347931558809</v>
       </c>
       <c r="D43" t="n">
-        <v>130.38827005982</v>
+        <v>362.1347931558809</v>
       </c>
       <c r="E43" t="n">
-        <v>95.71766921524075</v>
+        <v>362.1347931558809</v>
       </c>
       <c r="F43" t="n">
-        <v>95.71766921524075</v>
+        <v>362.1347931558809</v>
       </c>
       <c r="G43" t="n">
-        <v>95.71766921524075</v>
+        <v>194.3872674976252</v>
       </c>
       <c r="H43" t="n">
-        <v>95.71766921524075</v>
+        <v>194.3872674976252</v>
       </c>
       <c r="I43" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524078</v>
       </c>
       <c r="J43" t="n">
-        <v>137.7436613720288</v>
+        <v>137.7436613720289</v>
       </c>
       <c r="K43" t="n">
         <v>336.6421130738839</v>
@@ -7608,13 +7608,13 @@
         <v>1369.288857308811</v>
       </c>
       <c r="W43" t="n">
-        <v>1079.87168727185</v>
+        <v>1161.501570955575</v>
       </c>
       <c r="X43" t="n">
-        <v>851.8821363738325</v>
+        <v>933.5120200575577</v>
       </c>
       <c r="Y43" t="n">
-        <v>631.0895572303024</v>
+        <v>712.7194409140276</v>
       </c>
     </row>
     <row r="44">
@@ -7633,13 +7633,13 @@
         <v>1652.105554591512</v>
       </c>
       <c r="E44" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F44" t="n">
         <v>855.3313972036599</v>
       </c>
       <c r="G44" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155741</v>
       </c>
       <c r="H44" t="n">
         <v>141.5554198924156</v>
@@ -7648,22 +7648,22 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J44" t="n">
-        <v>276.3093906935954</v>
+        <v>443.7150397139484</v>
       </c>
       <c r="K44" t="n">
-        <v>597.708085861203</v>
+        <v>765.113734881556</v>
       </c>
       <c r="L44" t="n">
-        <v>1446.817951496196</v>
+        <v>1614.223600516549</v>
       </c>
       <c r="M44" t="n">
-        <v>2408.222828443784</v>
+        <v>2575.628477464137</v>
       </c>
       <c r="N44" t="n">
-        <v>3370.552243872424</v>
+        <v>3537.957892892777</v>
       </c>
       <c r="O44" t="n">
-        <v>4114.52506777933</v>
+        <v>4024.478454151809</v>
       </c>
       <c r="P44" t="n">
         <v>4495.258109903959</v>
@@ -7727,7 +7727,7 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J45" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K45" t="n">
         <v>488.1430095111811</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1096.215354379703</v>
+        <v>345.620046084046</v>
       </c>
       <c r="C46" t="n">
-        <v>927.2791714517959</v>
+        <v>345.620046084046</v>
       </c>
       <c r="D46" t="n">
-        <v>777.1625320394602</v>
+        <v>345.620046084046</v>
       </c>
       <c r="E46" t="n">
-        <v>629.2494384570671</v>
+        <v>345.620046084046</v>
       </c>
       <c r="F46" t="n">
-        <v>482.3594909591567</v>
+        <v>345.620046084046</v>
       </c>
       <c r="G46" t="n">
-        <v>314.6119653009009</v>
+        <v>177.8725204257902</v>
       </c>
       <c r="H46" t="n">
-        <v>167.9974523892201</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I46" t="n">
         <v>95.71766921524075</v>
@@ -7830,28 +7830,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R46" t="n">
-        <v>1913.078649972671</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="S46" t="n">
-        <v>1720.613957833929</v>
+        <v>1628.774119163341</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.656398353472</v>
+        <v>1406.816559682884</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.656398353472</v>
+        <v>1117.711255224911</v>
       </c>
       <c r="V46" t="n">
-        <v>1498.656398353472</v>
+        <v>863.0267670190239</v>
       </c>
       <c r="W46" t="n">
-        <v>1498.656398353472</v>
+        <v>573.6095969820633</v>
       </c>
       <c r="X46" t="n">
-        <v>1498.656398353472</v>
+        <v>345.620046084046</v>
       </c>
       <c r="Y46" t="n">
-        <v>1277.863819209942</v>
+        <v>345.620046084046</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8540,10 +8540,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8701,10 +8701,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>316.5995337026472</v>
       </c>
       <c r="O11" t="n">
-        <v>260.0527905534096</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K12" t="n">
-        <v>74.60209794880421</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>3.419393410990523</v>
+        <v>3.419393410990466</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>21.98878306823462</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>120.1689464528336</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>74.60209794880376</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>3.419393410990523</v>
+        <v>3.419393410990466</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>260.0527905534096</v>
+        <v>53.84110201061708</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>74.60209794880376</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>3.419393410990523</v>
+        <v>3.419393410990466</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>412.5008434698042</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>260.0527905534082</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K21" t="n">
-        <v>74.60209794880342</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9637,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>6.967434612012596</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9649,19 +9649,19 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>53.84110201061708</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9728,7 +9728,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>74.60209794880348</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9874,19 +9874,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>6.967434612012596</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>90.70213529832193</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9895,10 +9895,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K27" t="n">
-        <v>74.60209794880342</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -10120,22 +10120,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>378.5979391510148</v>
       </c>
       <c r="O29" t="n">
-        <v>260.0527905534082</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K30" t="n">
-        <v>74.60209794880342</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10351,10 +10351,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>77.88388639948886</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10363,16 +10363,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>260.0527905534082</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K33" t="n">
-        <v>74.60209794880342</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>296.9138238411135</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>90.7021352983229</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>74.60209794880333</v>
       </c>
       <c r="K36" t="n">
-        <v>74.60209794880342</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10837,7 +10837,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>260.0527905534082</v>
+        <v>260.0527905534091</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>74.60209794880333</v>
       </c>
       <c r="K39" t="n">
-        <v>74.60209794880456</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>90.70213529832296</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>260.0527905534082</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>74.60209794880333</v>
       </c>
       <c r="K42" t="n">
-        <v>74.60209794880342</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11311,10 +11311,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>260.0527905534082</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>90.95617538133394</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K45" t="n">
-        <v>74.60209794880342</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>90.92144028388269</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T13" t="n">
         <v>219.7379838856521</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2142514133935</v>
+        <v>277.1672035884708</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>172.1866241507282</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23548,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1.051603248924948e-12</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>129.7050611038158</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23664,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>145.148367782564</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>30.11152938138109</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>42.35111287998458</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>24.30419937181803</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>97.68290229956057</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>90.92144028388269</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24129,22 +24129,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I22" t="n">
         <v>97.68290229956055</v>
@@ -24177,22 +24177,22 @@
         <v>90.92144028388266</v>
       </c>
       <c r="S22" t="n">
-        <v>190.5400452173542</v>
+        <v>60.09184015003257</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>215.7502681532702</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24372,10 +24372,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24414,10 +24414,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>123.0190287445873</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.7379838856521</v>
+        <v>50.90200196074051</v>
       </c>
       <c r="U25" t="n">
         <v>286.2142514133935</v>
@@ -24609,16 +24609,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>116.3296680345417</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I28" t="n">
         <v>97.68290229956055</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>147.6448758219148</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24840,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>52.76908980081366</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>90.92144028388266</v>
       </c>
       <c r="S31" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,16 +24897,16 @@
         <v>286.2142514133935</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>8.001824550051509</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25083,19 +25083,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>60.09184015003257</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>227.6433226641441</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>60.09184015003234</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>108.9156428151546</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.0700504016732</v>
@@ -25362,10 +25362,10 @@
         <v>90.92144028388266</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>88.36317423427077</v>
       </c>
       <c r="H40" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V40" t="n">
-        <v>176.4714186628022</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>112.1100678104357</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>145.148367782564</v>
       </c>
       <c r="I43" t="n">
-        <v>97.68290229956055</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>80.81358484688792</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>63.81506508412004</v>
       </c>
       <c r="I46" t="n">
-        <v>26.12591695732101</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,19 +26079,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>839562.2517651004</v>
+        <v>839562.2517651002</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>839562.2517651004</v>
+        <v>839562.2517651001</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>839562.2517651003</v>
+        <v>839562.2517651002</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>839562.2517651003</v>
+        <v>839562.2517651002</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>839562.2517651002</v>
+        <v>839562.2517651003</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>839562.2517651002</v>
+        <v>839562.2517651003</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516047</v>
+        <v>595255.2831516048</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516047</v>
+        <v>595255.2831516048</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516048</v>
+        <v>595255.2831516049</v>
       </c>
       <c r="E2" t="n">
         <v>574938.487992355</v>
       </c>
       <c r="F2" t="n">
-        <v>574938.4879923547</v>
+        <v>574938.4879923549</v>
       </c>
       <c r="G2" t="n">
+        <v>574938.4879923549</v>
+      </c>
+      <c r="H2" t="n">
         <v>574938.487992355</v>
       </c>
-      <c r="H2" t="n">
-        <v>574938.4879923549</v>
-      </c>
       <c r="I2" t="n">
+        <v>574938.4879923551</v>
+      </c>
+      <c r="J2" t="n">
+        <v>574938.4879923551</v>
+      </c>
+      <c r="K2" t="n">
+        <v>574938.487992355</v>
+      </c>
+      <c r="L2" t="n">
+        <v>574938.4879923551</v>
+      </c>
+      <c r="M2" t="n">
         <v>574938.4879923548</v>
       </c>
-      <c r="J2" t="n">
-        <v>574938.4879923553</v>
-      </c>
-      <c r="K2" t="n">
-        <v>574938.4879923547</v>
-      </c>
-      <c r="L2" t="n">
-        <v>574938.4879923549</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>574938.487992355</v>
+      </c>
+      <c r="O2" t="n">
+        <v>574938.487992355</v>
+      </c>
+      <c r="P2" t="n">
         <v>574938.4879923551</v>
-      </c>
-      <c r="N2" t="n">
-        <v>574938.4879923549</v>
-      </c>
-      <c r="O2" t="n">
-        <v>574938.4879923553</v>
-      </c>
-      <c r="P2" t="n">
-        <v>574938.4879923549</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>708251.096751828</v>
+        <v>708251.0967518282</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130130.2399694094</v>
+        <v>130130.2399694095</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>198439.6015575409</v>
+        <v>197583.4247692038</v>
       </c>
       <c r="C4" t="n">
-        <v>198439.6015575409</v>
+        <v>197583.4247692038</v>
       </c>
       <c r="D4" t="n">
-        <v>198439.6015575409</v>
+        <v>197583.4247692038</v>
       </c>
       <c r="E4" t="n">
-        <v>26378.93459843435</v>
+        <v>26010.0070537281</v>
       </c>
       <c r="F4" t="n">
-        <v>26378.93459843435</v>
+        <v>26010.0070537281</v>
       </c>
       <c r="G4" t="n">
-        <v>26378.93459843435</v>
+        <v>26010.00705372812</v>
       </c>
       <c r="H4" t="n">
-        <v>26378.93459843433</v>
+        <v>26010.00705372815</v>
       </c>
       <c r="I4" t="n">
-        <v>26378.93459843432</v>
+        <v>26010.00705372816</v>
       </c>
       <c r="J4" t="n">
-        <v>26378.93459843433</v>
+        <v>26010.00705372815</v>
       </c>
       <c r="K4" t="n">
-        <v>26378.93459843433</v>
+        <v>26010.00705372815</v>
       </c>
       <c r="L4" t="n">
-        <v>26378.93459843433</v>
+        <v>26010.00705372815</v>
       </c>
       <c r="M4" t="n">
-        <v>26378.93459843433</v>
+        <v>26010.00705372816</v>
       </c>
       <c r="N4" t="n">
-        <v>26378.93459843433</v>
+        <v>26010.00705372816</v>
       </c>
       <c r="O4" t="n">
-        <v>26378.93459843433</v>
+        <v>26010.00705372816</v>
       </c>
       <c r="P4" t="n">
-        <v>26378.93459843433</v>
+        <v>26010.00705372814</v>
       </c>
     </row>
     <row r="5">
@@ -26487,10 +26487,10 @@
         <v>95967.71339206918</v>
       </c>
       <c r="H5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206918</v>
       </c>
       <c r="I5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206918</v>
       </c>
       <c r="J5" t="n">
         <v>95967.7133920692</v>
@@ -26502,13 +26502,13 @@
         <v>95967.7133920692</v>
       </c>
       <c r="M5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206921</v>
       </c>
       <c r="N5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206921</v>
       </c>
       <c r="O5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206921</v>
       </c>
       <c r="P5" t="n">
         <v>95967.7133920692</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-276011.2756838901</v>
+        <v>-275155.0988955528</v>
       </c>
       <c r="C6" t="n">
-        <v>313956.6035306543</v>
+        <v>314812.7803189916</v>
       </c>
       <c r="D6" t="n">
-        <v>313956.6035306545</v>
+        <v>314812.7803189917</v>
       </c>
       <c r="E6" t="n">
-        <v>-255659.2567499765</v>
+        <v>-255990.9083486929</v>
       </c>
       <c r="F6" t="n">
-        <v>452591.8400018511</v>
+        <v>452260.1884031352</v>
       </c>
       <c r="G6" t="n">
-        <v>452591.8400018515</v>
+        <v>452260.1884031352</v>
       </c>
       <c r="H6" t="n">
-        <v>452591.8400018514</v>
+        <v>452260.1884031353</v>
       </c>
       <c r="I6" t="n">
-        <v>452591.8400018513</v>
+        <v>452260.1884031353</v>
       </c>
       <c r="J6" t="n">
-        <v>276168.6208092588</v>
+        <v>275836.9692105424</v>
       </c>
       <c r="K6" t="n">
-        <v>452591.8400018511</v>
+        <v>452260.1884031353</v>
       </c>
       <c r="L6" t="n">
-        <v>452591.8400018514</v>
+        <v>452260.1884031354</v>
       </c>
       <c r="M6" t="n">
-        <v>322461.6000324422</v>
+        <v>322129.9484337255</v>
       </c>
       <c r="N6" t="n">
-        <v>452591.8400018514</v>
+        <v>452260.1884031353</v>
       </c>
       <c r="O6" t="n">
-        <v>452591.8400018517</v>
+        <v>452260.1884031352</v>
       </c>
       <c r="P6" t="n">
-        <v>452591.8400018514</v>
+        <v>452260.1884031354</v>
       </c>
     </row>
   </sheetData>
@@ -26746,13 +26746,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>1065.242421490193</v>
+        <v>1065.242421490194</v>
       </c>
       <c r="F3" t="n">
-        <v>1065.242421490193</v>
+        <v>1065.242421490194</v>
       </c>
       <c r="G3" t="n">
-        <v>1065.242421490193</v>
+        <v>1065.242421490194</v>
       </c>
       <c r="H3" t="n">
         <v>1065.242421490194</v>
@@ -26822,13 +26822,13 @@
         <v>1196.470865190509</v>
       </c>
       <c r="M4" t="n">
-        <v>1196.470865190509</v>
+        <v>1196.47086519051</v>
       </c>
       <c r="N4" t="n">
-        <v>1196.470865190509</v>
+        <v>1196.47086519051</v>
       </c>
       <c r="O4" t="n">
-        <v>1196.470865190509</v>
+        <v>1196.47086519051</v>
       </c>
       <c r="P4" t="n">
         <v>1196.470865190509</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>687.4987572731068</v>
+        <v>687.498757273107</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>522.1835924359538</v>
+        <v>522.183592435954</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>218.8388043680905</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>206.5828674239353</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27542,7 +27542,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>125.6900249618416</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27599,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>22.52673433654576</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>377.2225941234674</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>265.8177082943537</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>107.4125301101196</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>230.6199858141418</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27.7774355788884</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27906,22 +27906,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>96.41620790362001</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,16 +28013,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>14.59587156758288</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28061,13 +28061,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>123.8906333253337</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-1.144708848783168e-12</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28575,7 +28575,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-8.119788366582661e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31752,10 +31752,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.282381593930423</v>
+        <v>4.282381593930424</v>
       </c>
       <c r="H11" t="n">
-        <v>43.85694049883995</v>
+        <v>43.85694049883996</v>
       </c>
       <c r="I11" t="n">
         <v>165.0965164000028</v>
@@ -31764,31 +31764,31 @@
         <v>363.4617848078526</v>
       </c>
       <c r="K11" t="n">
-        <v>544.7349976789275</v>
+        <v>544.7349976789276</v>
       </c>
       <c r="L11" t="n">
-        <v>675.7919333841758</v>
+        <v>675.7919333841759</v>
       </c>
       <c r="M11" t="n">
-        <v>751.9487370552359</v>
+        <v>751.9487370552361</v>
       </c>
       <c r="N11" t="n">
-        <v>764.1160537589908</v>
+        <v>764.1160537589909</v>
       </c>
       <c r="O11" t="n">
-        <v>721.5331217843451</v>
+        <v>721.5331217843452</v>
       </c>
       <c r="P11" t="n">
-        <v>615.8118261841877</v>
+        <v>615.8118261841878</v>
       </c>
       <c r="Q11" t="n">
-        <v>462.4490353515542</v>
+        <v>462.4490353515544</v>
       </c>
       <c r="R11" t="n">
         <v>269.0031527997322</v>
       </c>
       <c r="S11" t="n">
-        <v>97.5847705716896</v>
+        <v>97.58477057168963</v>
       </c>
       <c r="T11" t="n">
         <v>18.74612542743044</v>
@@ -31837,7 +31837,7 @@
         <v>22.1289038879378</v>
       </c>
       <c r="I12" t="n">
-        <v>78.8882359311134</v>
+        <v>78.88823593111341</v>
       </c>
       <c r="J12" t="n">
         <v>216.4753490690591</v>
@@ -31846,34 +31846,34 @@
         <v>369.9908512453251</v>
       </c>
       <c r="L12" t="n">
-        <v>497.49835920634</v>
+        <v>497.4983592063401</v>
       </c>
       <c r="M12" t="n">
-        <v>580.5571197121553</v>
+        <v>580.5571197121554</v>
       </c>
       <c r="N12" t="n">
-        <v>595.9227391693112</v>
+        <v>595.9227391693113</v>
       </c>
       <c r="O12" t="n">
-        <v>545.1528833828163</v>
+        <v>545.1528833828164</v>
       </c>
       <c r="P12" t="n">
-        <v>437.5332504418872</v>
+        <v>437.5332504418873</v>
       </c>
       <c r="Q12" t="n">
-        <v>292.4793908967037</v>
+        <v>292.4793908967038</v>
       </c>
       <c r="R12" t="n">
-        <v>142.2601105529734</v>
+        <v>142.2601105529735</v>
       </c>
       <c r="S12" t="n">
-        <v>42.55944957557516</v>
+        <v>42.55944957557517</v>
       </c>
       <c r="T12" t="n">
-        <v>9.235450805183843</v>
+        <v>9.235450805183845</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1507418520976689</v>
+        <v>0.150741852097669</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,31 +31910,31 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.920928956785594</v>
+        <v>1.920928956785595</v>
       </c>
       <c r="H13" t="n">
         <v>17.07880472487557</v>
       </c>
       <c r="I13" t="n">
-        <v>57.76757262769772</v>
+        <v>57.76757262769773</v>
       </c>
       <c r="J13" t="n">
-        <v>135.8096772447415</v>
+        <v>135.8096772447416</v>
       </c>
       <c r="K13" t="n">
         <v>223.1770187974536</v>
       </c>
       <c r="L13" t="n">
-        <v>285.5897469024692</v>
+        <v>285.5897469024693</v>
       </c>
       <c r="M13" t="n">
-        <v>301.1143454714</v>
+        <v>301.1143454714001</v>
       </c>
       <c r="N13" t="n">
         <v>293.9545193597449</v>
       </c>
       <c r="O13" t="n">
-        <v>271.5145765463858</v>
+        <v>271.5145765463859</v>
       </c>
       <c r="P13" t="n">
         <v>232.3276258279595</v>
@@ -31943,13 +31943,13 @@
         <v>160.8516056450192</v>
       </c>
       <c r="R13" t="n">
-        <v>86.3719510932868</v>
+        <v>86.37195109328682</v>
       </c>
       <c r="S13" t="n">
-        <v>33.47655281961803</v>
+        <v>33.47655281961804</v>
       </c>
       <c r="T13" t="n">
-        <v>8.207605542629356</v>
+        <v>8.207605542629357</v>
       </c>
       <c r="U13" t="n">
         <v>0.1047779430973962</v>
@@ -31989,10 +31989,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.282381593930423</v>
+        <v>4.282381593930424</v>
       </c>
       <c r="H14" t="n">
-        <v>43.85694049883995</v>
+        <v>43.85694049883996</v>
       </c>
       <c r="I14" t="n">
         <v>165.0965164000028</v>
@@ -32001,31 +32001,31 @@
         <v>363.4617848078526</v>
       </c>
       <c r="K14" t="n">
-        <v>544.7349976789275</v>
+        <v>544.7349976789276</v>
       </c>
       <c r="L14" t="n">
-        <v>675.7919333841758</v>
+        <v>675.7919333841759</v>
       </c>
       <c r="M14" t="n">
-        <v>751.9487370552359</v>
+        <v>751.9487370552361</v>
       </c>
       <c r="N14" t="n">
-        <v>764.1160537589908</v>
+        <v>764.1160537589909</v>
       </c>
       <c r="O14" t="n">
-        <v>721.5331217843451</v>
+        <v>721.5331217843452</v>
       </c>
       <c r="P14" t="n">
-        <v>615.8118261841877</v>
+        <v>615.8118261841878</v>
       </c>
       <c r="Q14" t="n">
-        <v>462.4490353515542</v>
+        <v>462.4490353515544</v>
       </c>
       <c r="R14" t="n">
         <v>269.0031527997322</v>
       </c>
       <c r="S14" t="n">
-        <v>97.5847705716896</v>
+        <v>97.58477057168963</v>
       </c>
       <c r="T14" t="n">
         <v>18.74612542743044</v>
@@ -32074,7 +32074,7 @@
         <v>22.1289038879378</v>
       </c>
       <c r="I15" t="n">
-        <v>78.8882359311134</v>
+        <v>78.88823593111341</v>
       </c>
       <c r="J15" t="n">
         <v>216.4753490690591</v>
@@ -32083,34 +32083,34 @@
         <v>369.9908512453251</v>
       </c>
       <c r="L15" t="n">
-        <v>497.49835920634</v>
+        <v>497.4983592063401</v>
       </c>
       <c r="M15" t="n">
-        <v>580.5571197121553</v>
+        <v>580.5571197121554</v>
       </c>
       <c r="N15" t="n">
-        <v>595.9227391693112</v>
+        <v>595.9227391693113</v>
       </c>
       <c r="O15" t="n">
-        <v>545.1528833828163</v>
+        <v>545.1528833828164</v>
       </c>
       <c r="P15" t="n">
-        <v>437.5332504418872</v>
+        <v>437.5332504418873</v>
       </c>
       <c r="Q15" t="n">
-        <v>292.4793908967037</v>
+        <v>292.4793908967038</v>
       </c>
       <c r="R15" t="n">
-        <v>142.2601105529734</v>
+        <v>142.2601105529735</v>
       </c>
       <c r="S15" t="n">
-        <v>42.55944957557516</v>
+        <v>42.55944957557517</v>
       </c>
       <c r="T15" t="n">
-        <v>9.235450805183843</v>
+        <v>9.235450805183845</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1507418520976689</v>
+        <v>0.150741852097669</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,31 +32147,31 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.920928956785594</v>
+        <v>1.920928956785595</v>
       </c>
       <c r="H16" t="n">
         <v>17.07880472487557</v>
       </c>
       <c r="I16" t="n">
-        <v>57.76757262769772</v>
+        <v>57.76757262769773</v>
       </c>
       <c r="J16" t="n">
-        <v>135.8096772447415</v>
+        <v>135.8096772447416</v>
       </c>
       <c r="K16" t="n">
         <v>223.1770187974536</v>
       </c>
       <c r="L16" t="n">
-        <v>285.5897469024692</v>
+        <v>285.5897469024693</v>
       </c>
       <c r="M16" t="n">
-        <v>301.1143454714</v>
+        <v>301.1143454714001</v>
       </c>
       <c r="N16" t="n">
         <v>293.9545193597449</v>
       </c>
       <c r="O16" t="n">
-        <v>271.5145765463858</v>
+        <v>271.5145765463859</v>
       </c>
       <c r="P16" t="n">
         <v>232.3276258279595</v>
@@ -32180,13 +32180,13 @@
         <v>160.8516056450192</v>
       </c>
       <c r="R16" t="n">
-        <v>86.3719510932868</v>
+        <v>86.37195109328682</v>
       </c>
       <c r="S16" t="n">
-        <v>33.47655281961803</v>
+        <v>33.47655281961804</v>
       </c>
       <c r="T16" t="n">
-        <v>8.207605542629356</v>
+        <v>8.207605542629357</v>
       </c>
       <c r="U16" t="n">
         <v>0.1047779430973962</v>
@@ -32226,10 +32226,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.282381593930423</v>
+        <v>4.282381593930424</v>
       </c>
       <c r="H17" t="n">
-        <v>43.85694049883995</v>
+        <v>43.85694049883996</v>
       </c>
       <c r="I17" t="n">
         <v>165.0965164000028</v>
@@ -32238,31 +32238,31 @@
         <v>363.4617848078526</v>
       </c>
       <c r="K17" t="n">
-        <v>544.7349976789275</v>
+        <v>544.7349976789276</v>
       </c>
       <c r="L17" t="n">
-        <v>675.7919333841758</v>
+        <v>675.7919333841759</v>
       </c>
       <c r="M17" t="n">
-        <v>751.9487370552359</v>
+        <v>751.9487370552361</v>
       </c>
       <c r="N17" t="n">
-        <v>764.1160537589908</v>
+        <v>764.1160537589909</v>
       </c>
       <c r="O17" t="n">
-        <v>721.5331217843451</v>
+        <v>721.5331217843452</v>
       </c>
       <c r="P17" t="n">
-        <v>615.8118261841877</v>
+        <v>615.8118261841878</v>
       </c>
       <c r="Q17" t="n">
-        <v>462.4490353515542</v>
+        <v>462.4490353515544</v>
       </c>
       <c r="R17" t="n">
         <v>269.0031527997322</v>
       </c>
       <c r="S17" t="n">
-        <v>97.5847705716896</v>
+        <v>97.58477057168963</v>
       </c>
       <c r="T17" t="n">
         <v>18.74612542743044</v>
@@ -32311,7 +32311,7 @@
         <v>22.1289038879378</v>
       </c>
       <c r="I18" t="n">
-        <v>78.8882359311134</v>
+        <v>78.88823593111341</v>
       </c>
       <c r="J18" t="n">
         <v>216.4753490690591</v>
@@ -32320,34 +32320,34 @@
         <v>369.9908512453251</v>
       </c>
       <c r="L18" t="n">
-        <v>497.49835920634</v>
+        <v>497.4983592063401</v>
       </c>
       <c r="M18" t="n">
-        <v>580.5571197121553</v>
+        <v>580.5571197121554</v>
       </c>
       <c r="N18" t="n">
-        <v>595.9227391693112</v>
+        <v>595.9227391693113</v>
       </c>
       <c r="O18" t="n">
-        <v>545.1528833828163</v>
+        <v>545.1528833828164</v>
       </c>
       <c r="P18" t="n">
-        <v>437.5332504418872</v>
+        <v>437.5332504418873</v>
       </c>
       <c r="Q18" t="n">
-        <v>292.4793908967037</v>
+        <v>292.4793908967038</v>
       </c>
       <c r="R18" t="n">
-        <v>142.2601105529734</v>
+        <v>142.2601105529735</v>
       </c>
       <c r="S18" t="n">
-        <v>42.55944957557516</v>
+        <v>42.55944957557517</v>
       </c>
       <c r="T18" t="n">
-        <v>9.235450805183843</v>
+        <v>9.235450805183845</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1507418520976689</v>
+        <v>0.150741852097669</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,31 +32384,31 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.920928956785594</v>
+        <v>1.920928956785595</v>
       </c>
       <c r="H19" t="n">
         <v>17.07880472487557</v>
       </c>
       <c r="I19" t="n">
-        <v>57.76757262769772</v>
+        <v>57.76757262769773</v>
       </c>
       <c r="J19" t="n">
-        <v>135.8096772447415</v>
+        <v>135.8096772447416</v>
       </c>
       <c r="K19" t="n">
         <v>223.1770187974536</v>
       </c>
       <c r="L19" t="n">
-        <v>285.5897469024692</v>
+        <v>285.5897469024693</v>
       </c>
       <c r="M19" t="n">
-        <v>301.1143454714</v>
+        <v>301.1143454714001</v>
       </c>
       <c r="N19" t="n">
         <v>293.9545193597449</v>
       </c>
       <c r="O19" t="n">
-        <v>271.5145765463858</v>
+        <v>271.5145765463859</v>
       </c>
       <c r="P19" t="n">
         <v>232.3276258279595</v>
@@ -32417,13 +32417,13 @@
         <v>160.8516056450192</v>
       </c>
       <c r="R19" t="n">
-        <v>86.3719510932868</v>
+        <v>86.37195109328682</v>
       </c>
       <c r="S19" t="n">
-        <v>33.47655281961803</v>
+        <v>33.47655281961804</v>
       </c>
       <c r="T19" t="n">
-        <v>8.207605542629356</v>
+        <v>8.207605542629357</v>
       </c>
       <c r="U19" t="n">
         <v>0.1047779430973962</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,7 +35029,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35260,10 +35260,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35412,28 +35412,28 @@
         <v>182.4158802811663</v>
       </c>
       <c r="K11" t="n">
-        <v>324.6451466339469</v>
+        <v>324.645146633947</v>
       </c>
       <c r="L11" t="n">
-        <v>857.686732964639</v>
+        <v>857.6867329646391</v>
       </c>
       <c r="M11" t="n">
-        <v>971.1160373207957</v>
+        <v>971.1160373207958</v>
       </c>
       <c r="N11" t="n">
-        <v>972.049914574384</v>
+        <v>851.3025238650473</v>
       </c>
       <c r="O11" t="n">
-        <v>751.487700916068</v>
+        <v>872.2350916254038</v>
       </c>
       <c r="P11" t="n">
-        <v>384.5788304289181</v>
+        <v>384.5788304289183</v>
       </c>
       <c r="Q11" t="n">
-        <v>240.1433454771048</v>
+        <v>240.1433454771049</v>
       </c>
       <c r="R11" t="n">
-        <v>53.41761498560004</v>
+        <v>53.4176149856001</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>89.63772240239237</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K12" t="n">
-        <v>306.7515102197703</v>
+        <v>232.1494122709661</v>
       </c>
       <c r="L12" t="n">
-        <v>358.9439794264658</v>
+        <v>358.9439794264659</v>
       </c>
       <c r="M12" t="n">
-        <v>438.423085790137</v>
+        <v>438.4230857901371</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5810270859779</v>
+        <v>464.581027085978</v>
       </c>
       <c r="O12" t="n">
-        <v>402.5566389383719</v>
+        <v>402.556638938372</v>
       </c>
       <c r="P12" t="n">
-        <v>303.558843027557</v>
+        <v>303.5588430275571</v>
       </c>
       <c r="Q12" t="n">
         <v>152.4976168106822</v>
@@ -35567,16 +35567,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>42.45049712806875</v>
+        <v>42.45049712806878</v>
       </c>
       <c r="K13" t="n">
-        <v>200.9075269715707</v>
+        <v>200.9075269715708</v>
       </c>
       <c r="L13" t="n">
         <v>313.1797721627854</v>
       </c>
       <c r="M13" t="n">
-        <v>340.6982224332406</v>
+        <v>340.6982224332407</v>
       </c>
       <c r="N13" t="n">
         <v>338.0866917389735</v>
@@ -35585,10 +35585,10 @@
         <v>296.0997044604255</v>
       </c>
       <c r="P13" t="n">
-        <v>229.6061850928529</v>
+        <v>229.606185092853</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.68956239332483</v>
+        <v>74.68956239332486</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>182.4158802811663</v>
+        <v>351.5124954532401</v>
       </c>
       <c r="K14" t="n">
-        <v>648.7905592051117</v>
+        <v>648.7905592051118</v>
       </c>
       <c r="L14" t="n">
-        <v>857.686732964639</v>
+        <v>462.0143014824233</v>
       </c>
       <c r="M14" t="n">
-        <v>521.6025038279632</v>
+        <v>971.1160373207958</v>
       </c>
       <c r="N14" t="n">
-        <v>534.7029901623998</v>
+        <v>534.7029901624001</v>
       </c>
       <c r="O14" t="n">
-        <v>872.2350916254037</v>
+        <v>491.4349103626585</v>
       </c>
       <c r="P14" t="n">
         <v>706.3775386004008</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.3122919299384</v>
+        <v>452.4583361370096</v>
       </c>
       <c r="R14" t="n">
-        <v>53.41761498560004</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>89.63772240239237</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K15" t="n">
         <v>232.1494122709661</v>
       </c>
       <c r="L15" t="n">
-        <v>358.9439794264658</v>
+        <v>358.9439794264659</v>
       </c>
       <c r="M15" t="n">
-        <v>438.423085790137</v>
+        <v>438.4230857901371</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5810270859779</v>
+        <v>464.581027085978</v>
       </c>
       <c r="O15" t="n">
-        <v>402.5566389383719</v>
+        <v>402.556638938372</v>
       </c>
       <c r="P15" t="n">
-        <v>378.1609409763607</v>
+        <v>303.5588430275571</v>
       </c>
       <c r="Q15" t="n">
         <v>152.4976168106822</v>
@@ -35804,16 +35804,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>42.45049712806875</v>
+        <v>42.45049712806878</v>
       </c>
       <c r="K16" t="n">
-        <v>200.9075269715707</v>
+        <v>200.9075269715708</v>
       </c>
       <c r="L16" t="n">
         <v>313.1797721627854</v>
       </c>
       <c r="M16" t="n">
-        <v>340.6982224332406</v>
+        <v>340.6982224332407</v>
       </c>
       <c r="N16" t="n">
         <v>338.0866917389735</v>
@@ -35822,10 +35822,10 @@
         <v>296.0997044604255</v>
       </c>
       <c r="P16" t="n">
-        <v>229.6061850928529</v>
+        <v>229.606185092853</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.68956239332483</v>
+        <v>74.68956239332486</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>182.4158802811663</v>
+        <v>351.5124954532401</v>
       </c>
       <c r="K17" t="n">
-        <v>324.6451466339469</v>
+        <v>648.7905592051118</v>
       </c>
       <c r="L17" t="n">
-        <v>857.686732964639</v>
+        <v>857.6867329646391</v>
       </c>
       <c r="M17" t="n">
-        <v>971.1160373207957</v>
+        <v>521.6025038279633</v>
       </c>
       <c r="N17" t="n">
-        <v>972.049914574384</v>
+        <v>534.7029901624001</v>
       </c>
       <c r="O17" t="n">
-        <v>751.487700916068</v>
+        <v>545.2760123732755</v>
       </c>
       <c r="P17" t="n">
-        <v>384.5788304289181</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q17" t="n">
-        <v>240.1433454771048</v>
+        <v>452.4583361370096</v>
       </c>
       <c r="R17" t="n">
-        <v>53.41761498560004</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>89.63772240239237</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K18" t="n">
         <v>232.1494122709661</v>
       </c>
       <c r="L18" t="n">
-        <v>358.9439794264658</v>
+        <v>358.9439794264659</v>
       </c>
       <c r="M18" t="n">
-        <v>438.423085790137</v>
+        <v>438.4230857901371</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5810270859779</v>
+        <v>464.581027085978</v>
       </c>
       <c r="O18" t="n">
-        <v>402.5566389383719</v>
+        <v>402.556638938372</v>
       </c>
       <c r="P18" t="n">
-        <v>303.558843027557</v>
+        <v>303.5588430275571</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.0997147594859</v>
+        <v>152.4976168106822</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,16 +36041,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>42.45049712806875</v>
+        <v>42.45049712806878</v>
       </c>
       <c r="K19" t="n">
-        <v>200.9075269715707</v>
+        <v>200.9075269715708</v>
       </c>
       <c r="L19" t="n">
         <v>313.1797721627854</v>
       </c>
       <c r="M19" t="n">
-        <v>340.6982224332406</v>
+        <v>340.6982224332407</v>
       </c>
       <c r="N19" t="n">
         <v>338.0866917389735</v>
@@ -36059,10 +36059,10 @@
         <v>296.0997044604255</v>
       </c>
       <c r="P19" t="n">
-        <v>229.6061850928529</v>
+        <v>229.606185092853</v>
       </c>
       <c r="Q19" t="n">
-        <v>74.68956239332483</v>
+        <v>74.68956239332486</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>182.4158802811663</v>
+        <v>351.5124954532401</v>
       </c>
       <c r="K20" t="n">
-        <v>324.645146633947</v>
+        <v>648.7905592051118</v>
       </c>
       <c r="L20" t="n">
-        <v>857.6867329646391</v>
+        <v>852.5263618839929</v>
       </c>
       <c r="M20" t="n">
-        <v>971.1160373207958</v>
+        <v>521.6025038279633</v>
       </c>
       <c r="N20" t="n">
-        <v>972.0499145743842</v>
+        <v>534.7029901624001</v>
       </c>
       <c r="O20" t="n">
-        <v>751.4877009160666</v>
+        <v>872.2350916254038</v>
       </c>
       <c r="P20" t="n">
         <v>384.5788304289183</v>
       </c>
       <c r="Q20" t="n">
-        <v>240.1433454771049</v>
+        <v>452.4583361370096</v>
       </c>
       <c r="R20" t="n">
-        <v>53.4176149856001</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>89.63772240239243</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K21" t="n">
-        <v>306.7515102197696</v>
+        <v>232.1494122709661</v>
       </c>
       <c r="L21" t="n">
         <v>358.9439794264659</v>
@@ -36357,10 +36357,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>182.4158802811663</v>
+        <v>351.5124954532401</v>
       </c>
       <c r="K23" t="n">
-        <v>331.6125812459596</v>
+        <v>648.7905592051118</v>
       </c>
       <c r="L23" t="n">
         <v>857.6867329646391</v>
@@ -36369,19 +36369,19 @@
         <v>521.6025038279633</v>
       </c>
       <c r="N23" t="n">
-        <v>972.0499145743842</v>
+        <v>534.7029901624001</v>
       </c>
       <c r="O23" t="n">
-        <v>872.2350916254038</v>
+        <v>545.2760123732755</v>
       </c>
       <c r="P23" t="n">
         <v>706.3775386004008</v>
       </c>
       <c r="Q23" t="n">
-        <v>240.1433454771049</v>
+        <v>452.4583361370096</v>
       </c>
       <c r="R23" t="n">
-        <v>53.4176149856001</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>89.63772240239243</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K24" t="n">
         <v>232.1494122709661</v>
@@ -36448,7 +36448,7 @@
         <v>438.4230857901371</v>
       </c>
       <c r="N24" t="n">
-        <v>539.1831250347815</v>
+        <v>464.581027085978</v>
       </c>
       <c r="O24" t="n">
         <v>402.556638938372</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>182.4158802811663</v>
+        <v>351.5124954532401</v>
       </c>
       <c r="K26" t="n">
-        <v>331.6125812459596</v>
+        <v>648.7905592051118</v>
       </c>
       <c r="L26" t="n">
-        <v>857.6867329646391</v>
+        <v>530.7276537125106</v>
       </c>
       <c r="M26" t="n">
         <v>521.6025038279633</v>
       </c>
       <c r="N26" t="n">
-        <v>972.0499145743842</v>
+        <v>534.7029901624001</v>
       </c>
       <c r="O26" t="n">
         <v>872.2350916254038</v>
@@ -36615,10 +36615,10 @@
         <v>706.3775386004008</v>
       </c>
       <c r="Q26" t="n">
-        <v>240.1433454771049</v>
+        <v>452.4583361370096</v>
       </c>
       <c r="R26" t="n">
-        <v>53.4176149856001</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>89.63772240239243</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K27" t="n">
-        <v>306.7515102197696</v>
+        <v>232.1494122709661</v>
       </c>
       <c r="L27" t="n">
         <v>358.9439794264659</v>
@@ -36840,22 +36840,22 @@
         <v>857.6867329646391</v>
       </c>
       <c r="M29" t="n">
-        <v>971.1160373207958</v>
+        <v>521.6025038279633</v>
       </c>
       <c r="N29" t="n">
-        <v>972.0499145743842</v>
+        <v>913.3009293134148</v>
       </c>
       <c r="O29" t="n">
-        <v>751.4877009160666</v>
+        <v>872.2350916254038</v>
       </c>
       <c r="P29" t="n">
-        <v>384.5788304289183</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q29" t="n">
         <v>240.1433454771049</v>
       </c>
       <c r="R29" t="n">
-        <v>53.4176149856001</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>89.63772240239243</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K30" t="n">
-        <v>306.7515102197696</v>
+        <v>232.1494122709661</v>
       </c>
       <c r="L30" t="n">
         <v>358.9439794264659</v>
@@ -37071,10 +37071,10 @@
         <v>182.4158802811663</v>
       </c>
       <c r="K32" t="n">
-        <v>324.645146633947</v>
+        <v>402.5290330334359</v>
       </c>
       <c r="L32" t="n">
-        <v>857.6867329646391</v>
+        <v>440.0255184141886</v>
       </c>
       <c r="M32" t="n">
         <v>971.1160373207958</v>
@@ -37083,16 +37083,16 @@
         <v>972.0499145743842</v>
       </c>
       <c r="O32" t="n">
-        <v>751.4877009160666</v>
+        <v>491.4349103626585</v>
       </c>
       <c r="P32" t="n">
-        <v>384.5788304289183</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q32" t="n">
-        <v>240.1433454771049</v>
+        <v>452.4583361370096</v>
       </c>
       <c r="R32" t="n">
-        <v>53.4176149856001</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>89.63772240239243</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K33" t="n">
-        <v>306.7515102197696</v>
+        <v>232.1494122709661</v>
       </c>
       <c r="L33" t="n">
         <v>358.9439794264659</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>182.4158802811663</v>
+        <v>351.5124954532401</v>
       </c>
       <c r="K35" t="n">
-        <v>324.645146633947</v>
+        <v>648.7905592051118</v>
       </c>
       <c r="L35" t="n">
-        <v>736.9393422553021</v>
+        <v>440.0255184141886</v>
       </c>
       <c r="M35" t="n">
-        <v>971.1160373207958</v>
+        <v>521.6025038279633</v>
       </c>
       <c r="N35" t="n">
-        <v>972.0499145743842</v>
+        <v>625.405125460723</v>
       </c>
       <c r="O35" t="n">
         <v>872.2350916254038</v>
       </c>
       <c r="P35" t="n">
-        <v>384.5788304289183</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q35" t="n">
-        <v>240.1433454771049</v>
+        <v>452.4583361370096</v>
       </c>
       <c r="R35" t="n">
-        <v>53.4176149856001</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>89.63772240239243</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K36" t="n">
-        <v>306.7515102197696</v>
+        <v>232.1494122709661</v>
       </c>
       <c r="L36" t="n">
         <v>358.9439794264659</v>
@@ -37557,7 +37557,7 @@
         <v>972.0499145743842</v>
       </c>
       <c r="O38" t="n">
-        <v>751.4877009160666</v>
+        <v>751.4877009160675</v>
       </c>
       <c r="P38" t="n">
         <v>384.5788304289183</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>89.63772240239243</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K39" t="n">
-        <v>306.7515102197707</v>
+        <v>232.1494122709661</v>
       </c>
       <c r="L39" t="n">
         <v>358.9439794264659</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>182.4158802811663</v>
+        <v>351.5124954532401</v>
       </c>
       <c r="K41" t="n">
-        <v>324.645146633947</v>
+        <v>648.7905592051118</v>
       </c>
       <c r="L41" t="n">
-        <v>857.6867329646391</v>
+        <v>530.7276537125116</v>
       </c>
       <c r="M41" t="n">
-        <v>971.1160373207958</v>
+        <v>521.6025038279633</v>
       </c>
       <c r="N41" t="n">
-        <v>972.0499145743842</v>
+        <v>534.7029901624001</v>
       </c>
       <c r="O41" t="n">
-        <v>751.4877009160666</v>
+        <v>872.2350916254038</v>
       </c>
       <c r="P41" t="n">
-        <v>384.5788304289183</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q41" t="n">
-        <v>240.1433454771049</v>
+        <v>452.4583361370096</v>
       </c>
       <c r="R41" t="n">
-        <v>53.4176149856001</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>89.63772240239243</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K42" t="n">
-        <v>306.7515102197696</v>
+        <v>232.1494122709661</v>
       </c>
       <c r="L42" t="n">
         <v>358.9439794264659</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>182.4158802811663</v>
+        <v>351.5124954532401</v>
       </c>
       <c r="K44" t="n">
         <v>324.645146633947</v>
@@ -38031,10 +38031,10 @@
         <v>972.0499145743842</v>
       </c>
       <c r="O44" t="n">
-        <v>751.4877009160666</v>
+        <v>491.4349103626585</v>
       </c>
       <c r="P44" t="n">
-        <v>384.5788304289183</v>
+        <v>475.5350058102522</v>
       </c>
       <c r="Q44" t="n">
         <v>240.1433454771049</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>89.63772240239243</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K45" t="n">
-        <v>306.7515102197696</v>
+        <v>232.1494122709661</v>
       </c>
       <c r="L45" t="n">
         <v>358.9439794264659</v>
